--- a/EXTB/Format/付帯設備利用明細書_シアター.xlsx
+++ b/EXTB/Format/付帯設備利用明細書_シアター.xlsx
@@ -1,23 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\奥田\source\repos\EXT\EXTB\Format\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29988B8D-8650-4345-A316-6E81C9D84B02}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="24240" windowHeight="12060" tabRatio="826"/>
+    <workbookView xWindow="5985" yWindow="-17220" windowWidth="21600" windowHeight="12735" tabRatio="826" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シアター" sheetId="50" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">シアター!$A$1:$J$63</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">シアター!$A$1:$L$64</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>様</t>
     <rPh sb="0" eb="1">
@@ -182,18 +196,39 @@
     </r>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>消費税</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒゼイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>税率</t>
+    <rPh sb="0" eb="2">
+      <t>ゼイリツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>税額</t>
+    <rPh sb="0" eb="2">
+      <t>ゼイガク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="43">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -507,7 +542,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="54">
+  <borders count="55">
     <border>
       <left/>
       <right/>
@@ -1154,6 +1189,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1178,7 +1222,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="194">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1506,14 +1550,191 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="7" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="38" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="26" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="26" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="27" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="27" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="38" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="16" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="16" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="16" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="16" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="16" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="16" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="16" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="38" fontId="33" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="38" fontId="33" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" wrapText="1" indent="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="38" fontId="17" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="17" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="18" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="38" fontId="18" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="23" fillId="0" borderId="47" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="23" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="7" fillId="0" borderId="48" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="7" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1521,177 +1742,54 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="20" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="21" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="6" fontId="23" fillId="0" borderId="47" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="23" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="6" fontId="23" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="7" fillId="0" borderId="48" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="7" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="16" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="16" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="17" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="17" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="18" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="38" fontId="18" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="38" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="16" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="16" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="16" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="16" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="16" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="26" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="26" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="27" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="27" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="38" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
-    <cellStyle name="桁区切り 2" xfId="3"/>
+    <cellStyle name="桁区切り 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="通貨" xfId="2" builtinId="7"/>
-    <cellStyle name="通貨 2" xfId="4"/>
+    <cellStyle name="通貨 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="5"/>
-    <cellStyle name="標準 3" xfId="6"/>
+    <cellStyle name="標準 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="標準 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1712,25 +1810,31 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1857375</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="4" name="グループ化 2"/>
+        <xdr:cNvPr id="4" name="グループ化 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="19050" y="13754100"/>
+          <a:off x="19050" y="14058900"/>
           <a:ext cx="2219325" cy="1228725"/>
           <a:chOff x="38100" y="13115925"/>
           <a:chExt cx="2171700" cy="1076325"/>
@@ -1738,7 +1842,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+          <xdr:cNvPr id="5" name="正方形/長方形 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
@@ -1775,7 +1885,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+          <xdr:cNvPr id="6" name="正方形/長方形 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
@@ -1823,7 +1939,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+          <xdr:cNvPr id="7" name="正方形/長方形 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
@@ -1860,7 +1982,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+          <xdr:cNvPr id="8" name="正方形/長方形 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
@@ -1908,7 +2036,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+          <xdr:cNvPr id="9" name="正方形/長方形 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
@@ -1956,7 +2090,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+          <xdr:cNvPr id="10" name="正方形/長方形 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
@@ -2002,27 +2142,39 @@
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>807075</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>561975</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="グループ化 1"/>
+        <xdr:cNvPr id="2" name="グループ化 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="6324428" y="857250"/>
-          <a:ext cx="3531397" cy="1257300"/>
+          <a:ext cx="4998247" cy="1257300"/>
           <a:chOff x="6324428" y="857250"/>
           <a:chExt cx="3531397" cy="1257300"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="20" name="グループ化 19"/>
+          <xdr:cNvPr id="20" name="グループ化 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -2035,7 +2187,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="12" name="テキスト ボックス 11"/>
+            <xdr:cNvPr id="12" name="テキスト ボックス 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2089,7 +2247,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="13" name="テキスト ボックス 12"/>
+            <xdr:cNvPr id="13" name="テキスト ボックス 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2146,7 +2310,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="19" name="グループ化 18"/>
+          <xdr:cNvPr id="19" name="グループ化 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -2159,7 +2329,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15" name="テキスト ボックス 14"/>
+            <xdr:cNvPr id="15" name="テキスト ボックス 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2308,7 +2484,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="3" name="テキスト ボックス 2"/>
+            <xdr:cNvPr id="3" name="テキスト ボックス 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2392,7 +2574,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="17" name="テキスト ボックス 16"/>
+            <xdr:cNvPr id="17" name="テキスト ボックス 16">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2486,7 +2674,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2528,7 +2716,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2561,9 +2749,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2596,6 +2801,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2771,18 +2993,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J62"/>
+  <dimension ref="A1:L63"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="5" style="4" customWidth="1"/>
     <col min="2" max="2" width="41.875" style="4" customWidth="1"/>
@@ -2790,57 +3012,61 @@
     <col min="4" max="4" width="10.625" style="4" customWidth="1"/>
     <col min="5" max="5" width="6.75" style="4" customWidth="1"/>
     <col min="6" max="8" width="11.5" style="4" customWidth="1"/>
-    <col min="9" max="10" width="11.625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="9" style="4" customWidth="1"/>
-    <col min="12" max="12" width="8.875" style="4" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="4"/>
+    <col min="9" max="9" width="7.75" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="4" customWidth="1"/>
+    <col min="11" max="12" width="11.625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="9" style="4" customWidth="1"/>
+    <col min="14" max="14" width="8.875" style="4" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
-    </row>
-    <row r="2" spans="1:10" ht="30.75" customHeight="1">
-      <c r="A2" s="146" t="s">
+      <c r="K1" s="151"/>
+      <c r="L1" s="151"/>
+    </row>
+    <row r="2" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="152" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="146"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-    </row>
-    <row r="3" spans="1:10" ht="24" customHeight="1" thickBot="1">
+      <c r="B2" s="152"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
+      <c r="K2" s="152"/>
+      <c r="L2" s="152"/>
+    </row>
+    <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="35"/>
       <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G3" s="50"/>
     </row>
-    <row r="4" spans="1:10" ht="24" customHeight="1" thickBot="1">
-      <c r="B4" s="148"/>
-      <c r="C4" s="148"/>
+    <row r="4" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="159"/>
+      <c r="C4" s="159"/>
       <c r="G4" s="50"/>
     </row>
-    <row r="5" spans="1:10" ht="24" customHeight="1" thickBot="1">
-      <c r="B5" s="147"/>
-      <c r="C5" s="147"/>
+    <row r="5" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B5" s="153"/>
+      <c r="C5" s="153"/>
       <c r="G5" s="51"/>
     </row>
-    <row r="6" spans="1:10" s="7" customFormat="1" ht="45.6" customHeight="1" thickBot="1">
-      <c r="A6" s="149" t="s">
+    <row r="6" spans="1:12" s="7" customFormat="1" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="160" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="149"/>
+      <c r="B6" s="160"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -2848,17 +3074,19 @@
       <c r="G6" s="53"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="52"/>
-    </row>
-    <row r="7" spans="1:10" ht="21.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A7" s="120" t="s">
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="52"/>
+    </row>
+    <row r="7" spans="1:12" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="121"/>
-      <c r="C7" s="122" t="s">
+      <c r="B7" s="155"/>
+      <c r="C7" s="156" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="123"/>
+      <c r="D7" s="157"/>
       <c r="E7" s="54" t="s">
         <v>2</v>
       </c>
@@ -2871,12 +3099,18 @@
       <c r="H7" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="122" t="s">
+      <c r="I7" s="115" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="115" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="156" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="124"/>
-    </row>
-    <row r="8" spans="1:10" ht="21.95" customHeight="1" thickTop="1">
+      <c r="L7" s="158"/>
+    </row>
+    <row r="8" spans="1:12" ht="21.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A8" s="56"/>
       <c r="B8" s="109"/>
       <c r="C8" s="57"/>
@@ -2888,10 +3122,12 @@
         <f>F8+G8</f>
         <v>0</v>
       </c>
-      <c r="I8" s="154"/>
-      <c r="J8" s="155"/>
-    </row>
-    <row r="9" spans="1:10" ht="21.95" customHeight="1">
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="141"/>
+      <c r="L8" s="142"/>
+    </row>
+    <row r="9" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="59"/>
       <c r="B9" s="110"/>
       <c r="C9" s="60"/>
@@ -2903,10 +3139,12 @@
         <f>F9+G9</f>
         <v>0</v>
       </c>
-      <c r="I9" s="137"/>
-      <c r="J9" s="138"/>
-    </row>
-    <row r="10" spans="1:10" ht="21.95" customHeight="1">
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="143"/>
+      <c r="L9" s="144"/>
+    </row>
+    <row r="10" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="59"/>
       <c r="B10" s="110"/>
       <c r="C10" s="60"/>
@@ -2918,10 +3156,12 @@
         <f t="shared" ref="H10:H46" si="0">F10+G10</f>
         <v>0</v>
       </c>
-      <c r="I10" s="137"/>
-      <c r="J10" s="138"/>
-    </row>
-    <row r="11" spans="1:10" ht="21.95" customHeight="1">
+      <c r="I10" s="86"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="143"/>
+      <c r="L10" s="144"/>
+    </row>
+    <row r="11" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="59"/>
       <c r="B11" s="111"/>
       <c r="C11" s="62"/>
@@ -2933,10 +3173,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="137"/>
-      <c r="J11" s="138"/>
-    </row>
-    <row r="12" spans="1:10" ht="21.95" customHeight="1">
+      <c r="I11" s="86"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="143"/>
+      <c r="L11" s="144"/>
+    </row>
+    <row r="12" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="59"/>
       <c r="B12" s="111"/>
       <c r="C12" s="62"/>
@@ -2948,10 +3190,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="137"/>
-      <c r="J12" s="138"/>
-    </row>
-    <row r="13" spans="1:10" ht="21.95" customHeight="1">
+      <c r="I12" s="86"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="143"/>
+      <c r="L12" s="144"/>
+    </row>
+    <row r="13" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="59"/>
       <c r="B13" s="111"/>
       <c r="C13" s="62"/>
@@ -2963,10 +3207,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="137"/>
-      <c r="J13" s="138"/>
-    </row>
-    <row r="14" spans="1:10" s="42" customFormat="1" ht="21.95" customHeight="1">
+      <c r="I13" s="86"/>
+      <c r="J13" s="86"/>
+      <c r="K13" s="143"/>
+      <c r="L13" s="144"/>
+    </row>
+    <row r="14" spans="1:12" s="42" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="59"/>
       <c r="B14" s="111"/>
       <c r="C14" s="62"/>
@@ -2978,10 +3224,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="156"/>
-      <c r="J14" s="157"/>
-    </row>
-    <row r="15" spans="1:10" ht="21.95" customHeight="1">
+      <c r="I14" s="86"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="145"/>
+      <c r="L14" s="146"/>
+    </row>
+    <row r="15" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="59"/>
       <c r="B15" s="111"/>
       <c r="C15" s="62"/>
@@ -2993,10 +3241,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="137"/>
-      <c r="J15" s="138"/>
-    </row>
-    <row r="16" spans="1:10" ht="21.95" customHeight="1">
+      <c r="I15" s="86"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="143"/>
+      <c r="L15" s="144"/>
+    </row>
+    <row r="16" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="59"/>
       <c r="B16" s="111"/>
       <c r="C16" s="62"/>
@@ -3008,10 +3258,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="137"/>
-      <c r="J16" s="138"/>
-    </row>
-    <row r="17" spans="1:10" ht="21.95" customHeight="1">
+      <c r="I16" s="86"/>
+      <c r="J16" s="86"/>
+      <c r="K16" s="143"/>
+      <c r="L16" s="144"/>
+    </row>
+    <row r="17" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="59"/>
       <c r="B17" s="111"/>
       <c r="C17" s="62"/>
@@ -3023,10 +3275,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I17" s="137"/>
-      <c r="J17" s="138"/>
-    </row>
-    <row r="18" spans="1:10" ht="21.95" customHeight="1">
+      <c r="I17" s="86"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="143"/>
+      <c r="L17" s="144"/>
+    </row>
+    <row r="18" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="59"/>
       <c r="B18" s="111"/>
       <c r="C18" s="62"/>
@@ -3038,10 +3292,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I18" s="137"/>
-      <c r="J18" s="138"/>
-    </row>
-    <row r="19" spans="1:10" ht="21.95" customHeight="1">
+      <c r="I18" s="86"/>
+      <c r="J18" s="86"/>
+      <c r="K18" s="143"/>
+      <c r="L18" s="144"/>
+    </row>
+    <row r="19" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="59"/>
       <c r="B19" s="112"/>
       <c r="C19" s="62"/>
@@ -3053,10 +3309,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I19" s="158"/>
-      <c r="J19" s="159"/>
-    </row>
-    <row r="20" spans="1:10" ht="21.95" customHeight="1">
+      <c r="I19" s="86"/>
+      <c r="J19" s="86"/>
+      <c r="K19" s="147"/>
+      <c r="L19" s="148"/>
+    </row>
+    <row r="20" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="59"/>
       <c r="B20" s="110"/>
       <c r="C20" s="60"/>
@@ -3068,10 +3326,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I20" s="115"/>
-      <c r="J20" s="116"/>
-    </row>
-    <row r="21" spans="1:10" ht="21.95" customHeight="1">
+      <c r="I20" s="86"/>
+      <c r="J20" s="86"/>
+      <c r="K20" s="149"/>
+      <c r="L20" s="150"/>
+    </row>
+    <row r="21" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="59"/>
       <c r="B21" s="110"/>
       <c r="C21" s="60"/>
@@ -3083,10 +3343,12 @@
         <f t="shared" ref="H21:H34" si="1">F21+G21</f>
         <v>0</v>
       </c>
-      <c r="I21" s="115"/>
-      <c r="J21" s="116"/>
-    </row>
-    <row r="22" spans="1:10" ht="21.95" customHeight="1">
+      <c r="I21" s="86"/>
+      <c r="J21" s="86"/>
+      <c r="K21" s="149"/>
+      <c r="L21" s="150"/>
+    </row>
+    <row r="22" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="59"/>
       <c r="B22" s="110"/>
       <c r="C22" s="60"/>
@@ -3098,10 +3360,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I22" s="115"/>
-      <c r="J22" s="116"/>
-    </row>
-    <row r="23" spans="1:10" ht="21.95" customHeight="1">
+      <c r="I22" s="86"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="149"/>
+      <c r="L22" s="150"/>
+    </row>
+    <row r="23" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="59"/>
       <c r="B23" s="110"/>
       <c r="C23" s="60"/>
@@ -3113,10 +3377,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I23" s="115"/>
-      <c r="J23" s="116"/>
-    </row>
-    <row r="24" spans="1:10" ht="21.95" customHeight="1">
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
+      <c r="K23" s="149"/>
+      <c r="L23" s="150"/>
+    </row>
+    <row r="24" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="59"/>
       <c r="B24" s="110"/>
       <c r="C24" s="60"/>
@@ -3128,10 +3394,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I24" s="115"/>
-      <c r="J24" s="116"/>
-    </row>
-    <row r="25" spans="1:10" ht="21.95" customHeight="1">
+      <c r="I24" s="86"/>
+      <c r="J24" s="86"/>
+      <c r="K24" s="149"/>
+      <c r="L24" s="150"/>
+    </row>
+    <row r="25" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="59"/>
       <c r="B25" s="110"/>
       <c r="C25" s="60"/>
@@ -3143,10 +3411,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I25" s="115"/>
-      <c r="J25" s="116"/>
-    </row>
-    <row r="26" spans="1:10" ht="21.95" customHeight="1">
+      <c r="I25" s="86"/>
+      <c r="J25" s="86"/>
+      <c r="K25" s="149"/>
+      <c r="L25" s="150"/>
+    </row>
+    <row r="26" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="59"/>
       <c r="B26" s="110"/>
       <c r="C26" s="60"/>
@@ -3158,10 +3428,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I26" s="115"/>
-      <c r="J26" s="116"/>
-    </row>
-    <row r="27" spans="1:10" ht="21.95" customHeight="1">
+      <c r="I26" s="86"/>
+      <c r="J26" s="86"/>
+      <c r="K26" s="149"/>
+      <c r="L26" s="150"/>
+    </row>
+    <row r="27" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="59"/>
       <c r="B27" s="110"/>
       <c r="C27" s="60"/>
@@ -3173,10 +3445,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I27" s="115"/>
-      <c r="J27" s="116"/>
-    </row>
-    <row r="28" spans="1:10" ht="21.95" customHeight="1">
+      <c r="I27" s="86"/>
+      <c r="J27" s="86"/>
+      <c r="K27" s="149"/>
+      <c r="L27" s="150"/>
+    </row>
+    <row r="28" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="59"/>
       <c r="B28" s="110"/>
       <c r="C28" s="60"/>
@@ -3188,10 +3462,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I28" s="115"/>
-      <c r="J28" s="116"/>
-    </row>
-    <row r="29" spans="1:10" ht="21.95" customHeight="1">
+      <c r="I28" s="86"/>
+      <c r="J28" s="86"/>
+      <c r="K28" s="149"/>
+      <c r="L28" s="150"/>
+    </row>
+    <row r="29" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="59"/>
       <c r="B29" s="110"/>
       <c r="C29" s="60"/>
@@ -3203,10 +3479,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I29" s="115"/>
-      <c r="J29" s="116"/>
-    </row>
-    <row r="30" spans="1:10" ht="21.95" customHeight="1">
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
+      <c r="K29" s="149"/>
+      <c r="L29" s="150"/>
+    </row>
+    <row r="30" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="59"/>
       <c r="B30" s="110"/>
       <c r="C30" s="60"/>
@@ -3218,10 +3496,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I30" s="115"/>
-      <c r="J30" s="116"/>
-    </row>
-    <row r="31" spans="1:10" ht="21.95" customHeight="1">
+      <c r="I30" s="86"/>
+      <c r="J30" s="86"/>
+      <c r="K30" s="149"/>
+      <c r="L30" s="150"/>
+    </row>
+    <row r="31" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="59"/>
       <c r="B31" s="110"/>
       <c r="C31" s="60"/>
@@ -3233,10 +3513,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I31" s="115"/>
-      <c r="J31" s="116"/>
-    </row>
-    <row r="32" spans="1:10" ht="21.95" customHeight="1">
+      <c r="I31" s="86"/>
+      <c r="J31" s="86"/>
+      <c r="K31" s="149"/>
+      <c r="L31" s="150"/>
+    </row>
+    <row r="32" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="59"/>
       <c r="B32" s="110"/>
       <c r="C32" s="60"/>
@@ -3248,10 +3530,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I32" s="115"/>
-      <c r="J32" s="116"/>
-    </row>
-    <row r="33" spans="1:10" ht="21.95" customHeight="1" thickBot="1">
+      <c r="I32" s="86"/>
+      <c r="J32" s="86"/>
+      <c r="K32" s="149"/>
+      <c r="L32" s="150"/>
+    </row>
+    <row r="33" spans="1:12" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="59"/>
       <c r="B33" s="110"/>
       <c r="C33" s="60"/>
@@ -3263,10 +3547,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I33" s="115"/>
-      <c r="J33" s="116"/>
-    </row>
-    <row r="34" spans="1:10" ht="21.95" hidden="1" customHeight="1">
+      <c r="I33" s="86"/>
+      <c r="J33" s="86"/>
+      <c r="K33" s="149"/>
+      <c r="L33" s="150"/>
+    </row>
+    <row r="34" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="59"/>
       <c r="B34" s="110"/>
       <c r="C34" s="60"/>
@@ -3278,10 +3564,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I34" s="115"/>
-      <c r="J34" s="116"/>
-    </row>
-    <row r="35" spans="1:10" ht="21.95" hidden="1" customHeight="1">
+      <c r="I34" s="86"/>
+      <c r="J34" s="86"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="150"/>
+    </row>
+    <row r="35" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="59"/>
       <c r="B35" s="113"/>
       <c r="C35" s="60"/>
@@ -3293,10 +3581,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I35" s="137"/>
-      <c r="J35" s="138"/>
-    </row>
-    <row r="36" spans="1:10" ht="21.95" hidden="1" customHeight="1">
+      <c r="I35" s="86"/>
+      <c r="J35" s="86"/>
+      <c r="K35" s="143"/>
+      <c r="L35" s="144"/>
+    </row>
+    <row r="36" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="59"/>
       <c r="B36" s="113"/>
       <c r="C36" s="60"/>
@@ -3308,10 +3598,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="137"/>
-      <c r="J36" s="138"/>
-    </row>
-    <row r="37" spans="1:10" ht="21.95" hidden="1" customHeight="1">
+      <c r="I36" s="86"/>
+      <c r="J36" s="86"/>
+      <c r="K36" s="143"/>
+      <c r="L36" s="144"/>
+    </row>
+    <row r="37" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="59"/>
       <c r="B37" s="113"/>
       <c r="C37" s="60"/>
@@ -3323,10 +3615,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="137"/>
-      <c r="J37" s="138"/>
-    </row>
-    <row r="38" spans="1:10" ht="21.95" hidden="1" customHeight="1">
+      <c r="I37" s="86"/>
+      <c r="J37" s="86"/>
+      <c r="K37" s="143"/>
+      <c r="L37" s="144"/>
+    </row>
+    <row r="38" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="59"/>
       <c r="B38" s="114"/>
       <c r="C38" s="60"/>
@@ -3338,10 +3632,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I38" s="137"/>
-      <c r="J38" s="138"/>
-    </row>
-    <row r="39" spans="1:10" ht="21.95" hidden="1" customHeight="1">
+      <c r="I38" s="86"/>
+      <c r="J38" s="86"/>
+      <c r="K38" s="143"/>
+      <c r="L38" s="144"/>
+    </row>
+    <row r="39" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="59"/>
       <c r="B39" s="110"/>
       <c r="C39" s="60"/>
@@ -3353,10 +3649,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I39" s="143"/>
-      <c r="J39" s="144"/>
-    </row>
-    <row r="40" spans="1:10" ht="21.95" hidden="1" customHeight="1">
+      <c r="I39" s="86"/>
+      <c r="J39" s="86"/>
+      <c r="K39" s="165"/>
+      <c r="L39" s="166"/>
+    </row>
+    <row r="40" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="59"/>
       <c r="B40" s="110"/>
       <c r="C40" s="60"/>
@@ -3368,10 +3666,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="139"/>
-      <c r="J40" s="140"/>
-    </row>
-    <row r="41" spans="1:10" ht="21.95" hidden="1" customHeight="1">
+      <c r="I40" s="86"/>
+      <c r="J40" s="86"/>
+      <c r="K40" s="161"/>
+      <c r="L40" s="162"/>
+    </row>
+    <row r="41" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="59"/>
       <c r="B41" s="110"/>
       <c r="C41" s="60"/>
@@ -3383,10 +3683,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="139"/>
-      <c r="J41" s="140"/>
-    </row>
-    <row r="42" spans="1:10" ht="21.95" hidden="1" customHeight="1">
+      <c r="I41" s="86"/>
+      <c r="J41" s="86"/>
+      <c r="K41" s="161"/>
+      <c r="L41" s="162"/>
+    </row>
+    <row r="42" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="59"/>
       <c r="B42" s="110"/>
       <c r="C42" s="60"/>
@@ -3398,10 +3700,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="139"/>
-      <c r="J42" s="140"/>
-    </row>
-    <row r="43" spans="1:10" ht="21.95" hidden="1" customHeight="1">
+      <c r="I42" s="86"/>
+      <c r="J42" s="86"/>
+      <c r="K42" s="161"/>
+      <c r="L42" s="162"/>
+    </row>
+    <row r="43" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="59"/>
       <c r="B43" s="110"/>
       <c r="C43" s="60"/>
@@ -3413,10 +3717,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I43" s="139"/>
-      <c r="J43" s="140"/>
-    </row>
-    <row r="44" spans="1:10" ht="21.95" hidden="1" customHeight="1">
+      <c r="I43" s="86"/>
+      <c r="J43" s="86"/>
+      <c r="K43" s="161"/>
+      <c r="L43" s="162"/>
+    </row>
+    <row r="44" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="59"/>
       <c r="B44" s="110"/>
       <c r="C44" s="60"/>
@@ -3428,10 +3734,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I44" s="141"/>
-      <c r="J44" s="142"/>
-    </row>
-    <row r="45" spans="1:10" ht="21.95" hidden="1" customHeight="1">
+      <c r="I44" s="86"/>
+      <c r="J44" s="86"/>
+      <c r="K44" s="163"/>
+      <c r="L44" s="164"/>
+    </row>
+    <row r="45" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="59"/>
       <c r="B45" s="110"/>
       <c r="C45" s="60"/>
@@ -3443,10 +3751,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I45" s="141"/>
-      <c r="J45" s="142"/>
-    </row>
-    <row r="46" spans="1:10" ht="21.95" hidden="1" customHeight="1" thickBot="1">
+      <c r="I45" s="86"/>
+      <c r="J45" s="86"/>
+      <c r="K45" s="163"/>
+      <c r="L45" s="164"/>
+    </row>
+    <row r="46" spans="1:12" ht="21.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A46" s="64"/>
       <c r="B46" s="70"/>
       <c r="C46" s="65"/>
@@ -3458,133 +3768,152 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I46" s="150"/>
-      <c r="J46" s="151"/>
-    </row>
-    <row r="47" spans="1:10" ht="24" customHeight="1" thickTop="1">
+      <c r="I46" s="190"/>
+      <c r="J46" s="190"/>
+      <c r="K46" s="137"/>
+      <c r="L46" s="138"/>
+    </row>
+    <row r="47" spans="1:12" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A47" s="67"/>
       <c r="B47" s="68"/>
-      <c r="C47" s="152" t="s">
+      <c r="C47" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="D47" s="152"/>
+      <c r="D47" s="139"/>
       <c r="E47" s="104"/>
-      <c r="F47" s="125">
+      <c r="F47" s="167">
         <f>SUM(H8:H46)</f>
         <v>0</v>
       </c>
-      <c r="G47" s="126"/>
-      <c r="H47" s="126"/>
-      <c r="I47" s="94"/>
-      <c r="J47" s="15"/>
-    </row>
-    <row r="48" spans="1:10" ht="24" customHeight="1" thickBot="1">
-      <c r="A48" s="69"/>
-      <c r="B48" s="70"/>
-      <c r="C48" s="153" t="s">
+      <c r="G47" s="168"/>
+      <c r="H47" s="168"/>
+      <c r="I47" s="116"/>
+      <c r="J47" s="116"/>
+      <c r="K47" s="94"/>
+      <c r="L47" s="15"/>
+    </row>
+    <row r="48" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="181"/>
+      <c r="B48" s="182"/>
+      <c r="C48" s="186" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" s="187"/>
+      <c r="E48" s="183"/>
+      <c r="F48" s="188"/>
+      <c r="G48" s="189"/>
+      <c r="H48" s="189"/>
+      <c r="I48" s="193"/>
+      <c r="J48" s="191"/>
+      <c r="K48" s="184"/>
+      <c r="L48" s="185"/>
+    </row>
+    <row r="49" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A49" s="69"/>
+      <c r="B49" s="70"/>
+      <c r="C49" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="D48" s="153"/>
-      <c r="E48" s="71">
+      <c r="D49" s="140"/>
+      <c r="E49" s="71">
         <v>0.08</v>
       </c>
-      <c r="F48" s="127">
-        <f>F47*$E$48</f>
-        <v>0</v>
-      </c>
-      <c r="G48" s="128"/>
-      <c r="H48" s="128"/>
-      <c r="I48" s="95"/>
-      <c r="J48" s="16"/>
-    </row>
-    <row r="49" spans="1:10" ht="24" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A49" s="72"/>
-      <c r="B49" s="73"/>
-      <c r="C49" s="117" t="s">
+      <c r="F49" s="169">
+        <f>F47*$E$49</f>
+        <v>0</v>
+      </c>
+      <c r="G49" s="170"/>
+      <c r="H49" s="170"/>
+      <c r="I49" s="117"/>
+      <c r="J49" s="117"/>
+      <c r="K49" s="95"/>
+      <c r="L49" s="16"/>
+    </row>
+    <row r="50" spans="1:12" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A50" s="72"/>
+      <c r="B50" s="73"/>
+      <c r="C50" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="D49" s="117"/>
-      <c r="E49" s="105"/>
-      <c r="F49" s="129">
-        <f>F47+F48</f>
-        <v>0</v>
-      </c>
-      <c r="G49" s="130"/>
-      <c r="H49" s="130"/>
-      <c r="I49" s="96"/>
-      <c r="J49" s="18"/>
-    </row>
-    <row r="50" spans="1:10" s="21" customFormat="1" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A50" s="118" t="s">
+      <c r="D50" s="122"/>
+      <c r="E50" s="105"/>
+      <c r="F50" s="171">
+        <f>F47+F49</f>
+        <v>0</v>
+      </c>
+      <c r="G50" s="172"/>
+      <c r="H50" s="172"/>
+      <c r="I50" s="192"/>
+      <c r="J50" s="192"/>
+      <c r="K50" s="96"/>
+      <c r="L50" s="18"/>
+    </row>
+    <row r="51" spans="1:12" s="21" customFormat="1" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A51" s="179" t="s">
         <v>17</v>
       </c>
-      <c r="B50" s="118"/>
-      <c r="C50" s="118"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="119"/>
-      <c r="J50" s="119"/>
-    </row>
-    <row r="51" spans="1:10" ht="21.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A51" s="120" t="s">
+      <c r="B51" s="179"/>
+      <c r="C51" s="179"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="180"/>
+      <c r="L51" s="180"/>
+    </row>
+    <row r="52" spans="1:12" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A52" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="B51" s="121"/>
-      <c r="C51" s="122" t="s">
+      <c r="B52" s="155"/>
+      <c r="C52" s="156" t="s">
         <v>14</v>
       </c>
-      <c r="D51" s="123"/>
-      <c r="E51" s="54" t="s">
+      <c r="D52" s="157"/>
+      <c r="E52" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="F51" s="81" t="s">
+      <c r="F52" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="G51" s="87" t="s">
+      <c r="G52" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="H51" s="81" t="s">
+      <c r="H52" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="I51" s="122" t="s">
+      <c r="I52" s="115" t="s">
+        <v>26</v>
+      </c>
+      <c r="J52" s="115" t="s">
+        <v>27</v>
+      </c>
+      <c r="K52" s="156" t="s">
         <v>4</v>
       </c>
-      <c r="J51" s="124"/>
-    </row>
-    <row r="52" spans="1:10" ht="21.95" customHeight="1" thickTop="1">
-      <c r="A52" s="22"/>
-      <c r="B52" s="23"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="82"/>
-      <c r="G52" s="100"/>
-      <c r="H52" s="97">
-        <f>F52+G52</f>
-        <v>0</v>
-      </c>
-      <c r="I52" s="135"/>
-      <c r="J52" s="136"/>
-    </row>
-    <row r="53" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A53" s="48"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="83"/>
-      <c r="G53" s="101"/>
-      <c r="H53" s="98">
+      <c r="L52" s="158"/>
+    </row>
+    <row r="53" spans="1:12" ht="21.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="22"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="82"/>
+      <c r="G53" s="100"/>
+      <c r="H53" s="97">
         <f>F53+G53</f>
         <v>0</v>
       </c>
-      <c r="I53" s="133"/>
-      <c r="J53" s="134"/>
-    </row>
-    <row r="54" spans="1:10" ht="21.95" customHeight="1">
+      <c r="I53" s="97"/>
+      <c r="J53" s="97"/>
+      <c r="K53" s="177"/>
+      <c r="L53" s="178"/>
+    </row>
+    <row r="54" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="48"/>
       <c r="B54" s="11"/>
       <c r="C54" s="26"/>
@@ -3596,213 +3925,250 @@
         <f>F54+G54</f>
         <v>0</v>
       </c>
-      <c r="I54" s="133"/>
-      <c r="J54" s="134"/>
-    </row>
-    <row r="55" spans="1:10" ht="21.95" customHeight="1">
+      <c r="I54" s="98"/>
+      <c r="J54" s="98"/>
+      <c r="K54" s="175"/>
+      <c r="L54" s="176"/>
+    </row>
+    <row r="55" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="48"/>
-      <c r="B55" s="29"/>
-      <c r="C55" s="49"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="26"/>
       <c r="D55" s="10"/>
       <c r="E55" s="27"/>
       <c r="F55" s="83"/>
       <c r="G55" s="101"/>
       <c r="H55" s="98">
-        <f t="shared" ref="H55:H56" si="2">F55+G55</f>
-        <v>0</v>
-      </c>
-      <c r="I55" s="162"/>
-      <c r="J55" s="163"/>
-    </row>
-    <row r="56" spans="1:10" ht="21.95" customHeight="1" thickBot="1">
-      <c r="A56" s="36"/>
-      <c r="B56" s="37"/>
-      <c r="C56" s="38"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="40"/>
-      <c r="F56" s="84"/>
-      <c r="G56" s="102"/>
-      <c r="H56" s="99">
+        <f>F55+G55</f>
+        <v>0</v>
+      </c>
+      <c r="I55" s="98"/>
+      <c r="J55" s="98"/>
+      <c r="K55" s="175"/>
+      <c r="L55" s="176"/>
+    </row>
+    <row r="56" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A56" s="48"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="83"/>
+      <c r="G56" s="101"/>
+      <c r="H56" s="98">
+        <f t="shared" ref="H56:H57" si="2">F56+G56</f>
+        <v>0</v>
+      </c>
+      <c r="I56" s="98"/>
+      <c r="J56" s="98"/>
+      <c r="K56" s="123"/>
+      <c r="L56" s="124"/>
+    </row>
+    <row r="57" spans="1:12" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A57" s="36"/>
+      <c r="B57" s="37"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="84"/>
+      <c r="G57" s="102"/>
+      <c r="H57" s="99">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I56" s="164"/>
-      <c r="J56" s="165"/>
-    </row>
-    <row r="57" spans="1:10" ht="24" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A57" s="72"/>
-      <c r="B57" s="73"/>
-      <c r="C57" s="117" t="s">
+      <c r="I57" s="99"/>
+      <c r="J57" s="99"/>
+      <c r="K57" s="125"/>
+      <c r="L57" s="126"/>
+    </row>
+    <row r="58" spans="1:12" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A58" s="72"/>
+      <c r="B58" s="73"/>
+      <c r="C58" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="D57" s="117"/>
-      <c r="E57" s="74" t="s">
+      <c r="D58" s="122"/>
+      <c r="E58" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="F57" s="131">
-        <f>SUM(H52:H56)</f>
-        <v>0</v>
-      </c>
-      <c r="G57" s="132"/>
-      <c r="H57" s="132"/>
-      <c r="I57" s="103"/>
-      <c r="J57" s="28"/>
-    </row>
-    <row r="58" spans="1:10" ht="24" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A58" s="30"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="30"/>
-      <c r="F58" s="31"/>
-      <c r="G58" s="31"/>
-      <c r="H58" s="31"/>
-      <c r="I58" s="31"/>
-      <c r="J58" s="17"/>
-    </row>
-    <row r="59" spans="1:10" ht="24" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A59" s="32"/>
-      <c r="B59" s="75" t="s">
+      <c r="F58" s="173">
+        <f>SUM(H53:H57)</f>
+        <v>0</v>
+      </c>
+      <c r="G58" s="174"/>
+      <c r="H58" s="174"/>
+      <c r="I58" s="118"/>
+      <c r="J58" s="118"/>
+      <c r="K58" s="103"/>
+      <c r="L58" s="28"/>
+    </row>
+    <row r="59" spans="1:12" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A59" s="30"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="31"/>
+      <c r="J59" s="31"/>
+      <c r="K59" s="31"/>
+      <c r="L59" s="17"/>
+    </row>
+    <row r="60" spans="1:12" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A60" s="32"/>
+      <c r="B60" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="171" t="s">
+      <c r="C60" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="D59" s="171"/>
-      <c r="E59" s="106"/>
-      <c r="F59" s="170">
-        <f>F49+F57</f>
-        <v>0</v>
-      </c>
-      <c r="G59" s="170"/>
-      <c r="H59" s="170"/>
-      <c r="I59" s="166" t="s">
+      <c r="D60" s="132"/>
+      <c r="E60" s="106"/>
+      <c r="F60" s="131">
+        <f>F50+F58</f>
+        <v>0</v>
+      </c>
+      <c r="G60" s="131"/>
+      <c r="H60" s="131"/>
+      <c r="I60" s="119"/>
+      <c r="J60" s="119"/>
+      <c r="K60" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="J59" s="167"/>
-    </row>
-    <row r="60" spans="1:10" ht="35.1" customHeight="1" thickTop="1">
-      <c r="A60" s="168"/>
-      <c r="B60" s="168"/>
-      <c r="C60" s="168"/>
-      <c r="D60" s="168"/>
-      <c r="E60" s="169"/>
-      <c r="F60" s="107" t="s">
+      <c r="L60" s="128"/>
+    </row>
+    <row r="61" spans="1:12" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A61" s="129"/>
+      <c r="B61" s="129"/>
+      <c r="C61" s="129"/>
+      <c r="D61" s="129"/>
+      <c r="E61" s="130"/>
+      <c r="F61" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="G60" s="172">
+      <c r="G61" s="133">
         <f>B3</f>
         <v>0</v>
       </c>
-      <c r="H60" s="172"/>
-      <c r="I60" s="172"/>
-      <c r="J60" s="173"/>
-    </row>
-    <row r="61" spans="1:10" ht="32.1" customHeight="1" thickBot="1">
-      <c r="A61" s="160"/>
-      <c r="B61" s="160"/>
-      <c r="C61" s="160"/>
-      <c r="D61" s="160"/>
-      <c r="E61" s="161"/>
-      <c r="F61" s="108" t="s">
+      <c r="H61" s="133"/>
+      <c r="I61" s="133"/>
+      <c r="J61" s="133"/>
+      <c r="K61" s="133"/>
+      <c r="L61" s="134"/>
+    </row>
+    <row r="62" spans="1:12" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A62" s="120"/>
+      <c r="B62" s="120"/>
+      <c r="C62" s="120"/>
+      <c r="D62" s="120"/>
+      <c r="E62" s="121"/>
+      <c r="F62" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="G61" s="174"/>
-      <c r="H61" s="174"/>
-      <c r="I61" s="174"/>
-      <c r="J61" s="175"/>
-    </row>
-    <row r="62" spans="1:10" ht="20.25" thickTop="1">
-      <c r="A62" s="33"/>
-      <c r="B62" s="34"/>
-      <c r="C62" s="34"/>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="34"/>
-      <c r="J62" s="34"/>
+      <c r="G62" s="135"/>
+      <c r="H62" s="135"/>
+      <c r="I62" s="135"/>
+      <c r="J62" s="135"/>
+      <c r="K62" s="135"/>
+      <c r="L62" s="136"/>
+    </row>
+    <row r="63" spans="1:12" ht="20.25" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A63" s="33"/>
+      <c r="B63" s="34"/>
+      <c r="C63" s="34"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="34"/>
+      <c r="G63" s="34"/>
+      <c r="H63" s="34"/>
+      <c r="I63" s="34"/>
+      <c r="J63" s="34"/>
+      <c r="K63" s="34"/>
+      <c r="L63" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="A60:E60"/>
-    <mergeCell ref="F59:H59"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="G60:J60"/>
-    <mergeCell ref="G61:J61"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="C47:D47"/>
+  <mergeCells count="74">
     <mergeCell ref="C48:D48"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="F58:H58"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="A2:L2"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="F57:H57"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="C47:D47"/>
     <mergeCell ref="C49:D49"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="G61:L61"/>
+    <mergeCell ref="G62:L62"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="70" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="61" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/EXTB/Format/付帯設備利用明細書_シアター.xlsx
+++ b/EXTB/Format/付帯設備利用明細書_シアター.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\奥田\source\repos\EXT\EXTB\Format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29988B8D-8650-4345-A316-6E81C9D84B02}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1826F779-16B1-4577-91B5-F4CA67303879}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5985" yWindow="-17220" windowWidth="21600" windowHeight="12735" tabRatio="826" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7065" yWindow="-17310" windowWidth="21600" windowHeight="12735" tabRatio="826" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シアター" sheetId="50" r:id="rId1"/>
@@ -1222,7 +1222,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="194">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1379,9 +1379,6 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="35" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="36" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1394,9 +1391,6 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="35" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="36" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1565,6 +1559,45 @@
     <xf numFmtId="6" fontId="38" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="20" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="21" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="23" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="35" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="35" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="35" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1658,6 +1691,18 @@
     <xf numFmtId="38" fontId="33" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="38" fontId="17" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="17" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1686,100 +1731,64 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="38" fontId="17" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="23" fillId="0" borderId="47" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="23" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="7" fillId="0" borderId="48" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="7" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="17" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="38" fontId="18" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="38" fontId="18" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="23" fillId="0" borderId="47" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="23" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="7" fillId="0" borderId="48" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="7" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="20" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="21" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="23" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
+    <xf numFmtId="9" fontId="37" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3000,8 +3009,8 @@
   </sheetPr>
   <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K47" sqref="K47"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
@@ -3026,24 +3035,24 @@
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
-      <c r="K1" s="151"/>
-      <c r="L1" s="151"/>
+      <c r="K1" s="166"/>
+      <c r="L1" s="166"/>
     </row>
     <row r="2" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="167" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
-      <c r="L2" s="152"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
+      <c r="L2" s="167"/>
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="35"/>
@@ -3053,20 +3062,20 @@
       <c r="G3" s="50"/>
     </row>
     <row r="4" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="159"/>
-      <c r="C4" s="159"/>
+      <c r="B4" s="174"/>
+      <c r="C4" s="174"/>
       <c r="G4" s="50"/>
     </row>
     <row r="5" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="153"/>
-      <c r="C5" s="153"/>
+      <c r="B5" s="168"/>
+      <c r="C5" s="168"/>
       <c r="G5" s="51"/>
     </row>
     <row r="6" spans="1:12" s="7" customFormat="1" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="160" t="s">
+      <c r="A6" s="175" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="160"/>
+      <c r="B6" s="175"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -3079,781 +3088,781 @@
       <c r="L6" s="52"/>
     </row>
     <row r="7" spans="1:12" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="154" t="s">
+      <c r="A7" s="169" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="155"/>
-      <c r="C7" s="156" t="s">
+      <c r="B7" s="170"/>
+      <c r="C7" s="171" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="157"/>
+      <c r="D7" s="172"/>
       <c r="E7" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="81" t="s">
+      <c r="F7" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="87" t="s">
+      <c r="G7" s="85" t="s">
         <v>16</v>
       </c>
       <c r="H7" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="115" t="s">
+      <c r="I7" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="115" t="s">
+      <c r="J7" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="156" t="s">
+      <c r="K7" s="171" t="s">
         <v>4</v>
       </c>
-      <c r="L7" s="158"/>
+      <c r="L7" s="173"/>
     </row>
     <row r="8" spans="1:12" ht="21.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A8" s="56"/>
-      <c r="B8" s="109"/>
+      <c r="B8" s="107"/>
       <c r="C8" s="57"/>
-      <c r="D8" s="58"/>
+      <c r="D8" s="128"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="76">
+      <c r="F8" s="74"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="74">
         <f>F8+G8</f>
         <v>0</v>
       </c>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="141"/>
-      <c r="L8" s="142"/>
+      <c r="I8" s="126"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="152"/>
+      <c r="L8" s="153"/>
     </row>
     <row r="9" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="59"/>
-      <c r="B9" s="110"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="61"/>
+      <c r="A9" s="58"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="129"/>
       <c r="E9" s="43"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="86">
+      <c r="F9" s="75"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="84">
         <f>F9+G9</f>
         <v>0</v>
       </c>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="143"/>
-      <c r="L9" s="144"/>
+      <c r="I9" s="127"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="154"/>
+      <c r="L9" s="155"/>
     </row>
     <row r="10" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="59"/>
-      <c r="B10" s="110"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="61"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="129"/>
       <c r="E10" s="43"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="86">
+      <c r="F10" s="75"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="84">
         <f t="shared" ref="H10:H46" si="0">F10+G10</f>
         <v>0</v>
       </c>
-      <c r="I10" s="86"/>
-      <c r="J10" s="86"/>
-      <c r="K10" s="143"/>
-      <c r="L10" s="144"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="154"/>
+      <c r="L10" s="155"/>
     </row>
     <row r="11" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="59"/>
-      <c r="B11" s="111"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="63"/>
+      <c r="A11" s="58"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="130"/>
       <c r="E11" s="43"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="86">
+      <c r="F11" s="75"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="86"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="143"/>
-      <c r="L11" s="144"/>
+      <c r="I11" s="127"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="154"/>
+      <c r="L11" s="155"/>
     </row>
     <row r="12" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="59"/>
-      <c r="B12" s="111"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="63"/>
+      <c r="A12" s="58"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="130"/>
       <c r="E12" s="43"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="86">
+      <c r="F12" s="75"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="86"/>
-      <c r="J12" s="86"/>
-      <c r="K12" s="143"/>
-      <c r="L12" s="144"/>
+      <c r="I12" s="127"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="154"/>
+      <c r="L12" s="155"/>
     </row>
     <row r="13" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="59"/>
-      <c r="B13" s="111"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="63"/>
+      <c r="A13" s="58"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="130"/>
       <c r="E13" s="12"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="86">
+      <c r="F13" s="75"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="86"/>
-      <c r="J13" s="86"/>
-      <c r="K13" s="143"/>
-      <c r="L13" s="144"/>
+      <c r="I13" s="127"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="154"/>
+      <c r="L13" s="155"/>
     </row>
     <row r="14" spans="1:12" s="42" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="59"/>
-      <c r="B14" s="111"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="63"/>
+      <c r="A14" s="58"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="130"/>
       <c r="E14" s="41"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="86">
+      <c r="F14" s="76"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="86"/>
-      <c r="J14" s="86"/>
-      <c r="K14" s="145"/>
-      <c r="L14" s="146"/>
+      <c r="I14" s="127"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="156"/>
+      <c r="L14" s="157"/>
     </row>
     <row r="15" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="59"/>
-      <c r="B15" s="111"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="63"/>
+      <c r="A15" s="58"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="130"/>
       <c r="E15" s="12"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="86">
+      <c r="F15" s="75"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="86"/>
-      <c r="J15" s="86"/>
-      <c r="K15" s="143"/>
-      <c r="L15" s="144"/>
+      <c r="I15" s="127"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="154"/>
+      <c r="L15" s="155"/>
     </row>
     <row r="16" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="59"/>
-      <c r="B16" s="111"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="63"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="130"/>
       <c r="E16" s="12"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="86">
+      <c r="F16" s="83"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="86"/>
-      <c r="J16" s="86"/>
-      <c r="K16" s="143"/>
-      <c r="L16" s="144"/>
+      <c r="I16" s="127"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="154"/>
+      <c r="L16" s="155"/>
     </row>
     <row r="17" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="59"/>
-      <c r="B17" s="111"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="63"/>
+      <c r="A17" s="58"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="130"/>
       <c r="E17" s="13"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="86">
+      <c r="F17" s="75"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I17" s="86"/>
-      <c r="J17" s="86"/>
-      <c r="K17" s="143"/>
-      <c r="L17" s="144"/>
+      <c r="I17" s="127"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="154"/>
+      <c r="L17" s="155"/>
     </row>
     <row r="18" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="59"/>
-      <c r="B18" s="111"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="63"/>
+      <c r="A18" s="58"/>
+      <c r="B18" s="109"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="130"/>
       <c r="E18" s="44"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="86">
+      <c r="F18" s="75"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I18" s="86"/>
-      <c r="J18" s="86"/>
-      <c r="K18" s="143"/>
-      <c r="L18" s="144"/>
+      <c r="I18" s="127"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="154"/>
+      <c r="L18" s="155"/>
     </row>
     <row r="19" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="59"/>
-      <c r="B19" s="112"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="63"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="110"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="130"/>
       <c r="E19" s="45"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="92"/>
-      <c r="H19" s="86">
+      <c r="F19" s="77"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I19" s="86"/>
-      <c r="J19" s="86"/>
-      <c r="K19" s="147"/>
-      <c r="L19" s="148"/>
+      <c r="I19" s="127"/>
+      <c r="J19" s="84"/>
+      <c r="K19" s="158"/>
+      <c r="L19" s="159"/>
     </row>
     <row r="20" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="59"/>
-      <c r="B20" s="110"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="61"/>
+      <c r="A20" s="58"/>
+      <c r="B20" s="108"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="129"/>
       <c r="E20" s="12"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="86">
+      <c r="F20" s="75"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I20" s="86"/>
-      <c r="J20" s="86"/>
-      <c r="K20" s="149"/>
-      <c r="L20" s="150"/>
+      <c r="I20" s="127"/>
+      <c r="J20" s="84"/>
+      <c r="K20" s="160"/>
+      <c r="L20" s="161"/>
     </row>
     <row r="21" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="59"/>
-      <c r="B21" s="110"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="61"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="108"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="129"/>
       <c r="E21" s="12"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="86">
+      <c r="F21" s="75"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="84">
         <f t="shared" ref="H21:H34" si="1">F21+G21</f>
         <v>0</v>
       </c>
-      <c r="I21" s="86"/>
-      <c r="J21" s="86"/>
-      <c r="K21" s="149"/>
-      <c r="L21" s="150"/>
+      <c r="I21" s="127"/>
+      <c r="J21" s="84"/>
+      <c r="K21" s="160"/>
+      <c r="L21" s="161"/>
     </row>
     <row r="22" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="59"/>
-      <c r="B22" s="110"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="61"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="108"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="129"/>
       <c r="E22" s="12"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="89"/>
-      <c r="H22" s="86">
+      <c r="F22" s="75"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I22" s="86"/>
-      <c r="J22" s="86"/>
-      <c r="K22" s="149"/>
-      <c r="L22" s="150"/>
+      <c r="I22" s="127"/>
+      <c r="J22" s="84"/>
+      <c r="K22" s="160"/>
+      <c r="L22" s="161"/>
     </row>
     <row r="23" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="59"/>
-      <c r="B23" s="110"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="61"/>
+      <c r="A23" s="58"/>
+      <c r="B23" s="108"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="129"/>
       <c r="E23" s="12"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="89"/>
-      <c r="H23" s="86">
+      <c r="F23" s="75"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
-      <c r="K23" s="149"/>
-      <c r="L23" s="150"/>
+      <c r="I23" s="127"/>
+      <c r="J23" s="84"/>
+      <c r="K23" s="160"/>
+      <c r="L23" s="161"/>
     </row>
     <row r="24" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="59"/>
-      <c r="B24" s="110"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="61"/>
+      <c r="A24" s="58"/>
+      <c r="B24" s="108"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="129"/>
       <c r="E24" s="12"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="86">
+      <c r="F24" s="75"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I24" s="86"/>
-      <c r="J24" s="86"/>
-      <c r="K24" s="149"/>
-      <c r="L24" s="150"/>
+      <c r="I24" s="127"/>
+      <c r="J24" s="84"/>
+      <c r="K24" s="160"/>
+      <c r="L24" s="161"/>
     </row>
     <row r="25" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="59"/>
-      <c r="B25" s="110"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="61"/>
+      <c r="A25" s="58"/>
+      <c r="B25" s="108"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="129"/>
       <c r="E25" s="12"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="89"/>
-      <c r="H25" s="86">
+      <c r="F25" s="75"/>
+      <c r="G25" s="87"/>
+      <c r="H25" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I25" s="86"/>
-      <c r="J25" s="86"/>
-      <c r="K25" s="149"/>
-      <c r="L25" s="150"/>
+      <c r="I25" s="127"/>
+      <c r="J25" s="84"/>
+      <c r="K25" s="160"/>
+      <c r="L25" s="161"/>
     </row>
     <row r="26" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="59"/>
-      <c r="B26" s="110"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="61"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="108"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="129"/>
       <c r="E26" s="12"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="89"/>
-      <c r="H26" s="86">
+      <c r="F26" s="75"/>
+      <c r="G26" s="87"/>
+      <c r="H26" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I26" s="86"/>
-      <c r="J26" s="86"/>
-      <c r="K26" s="149"/>
-      <c r="L26" s="150"/>
+      <c r="I26" s="127"/>
+      <c r="J26" s="84"/>
+      <c r="K26" s="160"/>
+      <c r="L26" s="161"/>
     </row>
     <row r="27" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="59"/>
-      <c r="B27" s="110"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="61"/>
+      <c r="A27" s="58"/>
+      <c r="B27" s="108"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="129"/>
       <c r="E27" s="12"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="89"/>
-      <c r="H27" s="86">
+      <c r="F27" s="75"/>
+      <c r="G27" s="87"/>
+      <c r="H27" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I27" s="86"/>
-      <c r="J27" s="86"/>
-      <c r="K27" s="149"/>
-      <c r="L27" s="150"/>
+      <c r="I27" s="127"/>
+      <c r="J27" s="84"/>
+      <c r="K27" s="160"/>
+      <c r="L27" s="161"/>
     </row>
     <row r="28" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="59"/>
-      <c r="B28" s="110"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="61"/>
+      <c r="A28" s="58"/>
+      <c r="B28" s="108"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="129"/>
       <c r="E28" s="12"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="86">
+      <c r="F28" s="75"/>
+      <c r="G28" s="87"/>
+      <c r="H28" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I28" s="86"/>
-      <c r="J28" s="86"/>
-      <c r="K28" s="149"/>
-      <c r="L28" s="150"/>
+      <c r="I28" s="127"/>
+      <c r="J28" s="84"/>
+      <c r="K28" s="160"/>
+      <c r="L28" s="161"/>
     </row>
     <row r="29" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="59"/>
-      <c r="B29" s="110"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="61"/>
+      <c r="A29" s="58"/>
+      <c r="B29" s="108"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="129"/>
       <c r="E29" s="12"/>
-      <c r="F29" s="77"/>
-      <c r="G29" s="89"/>
-      <c r="H29" s="86">
+      <c r="F29" s="75"/>
+      <c r="G29" s="87"/>
+      <c r="H29" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I29" s="86"/>
-      <c r="J29" s="86"/>
-      <c r="K29" s="149"/>
-      <c r="L29" s="150"/>
+      <c r="I29" s="127"/>
+      <c r="J29" s="84"/>
+      <c r="K29" s="160"/>
+      <c r="L29" s="161"/>
     </row>
     <row r="30" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="59"/>
-      <c r="B30" s="110"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="61"/>
+      <c r="A30" s="58"/>
+      <c r="B30" s="108"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="129"/>
       <c r="E30" s="12"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="89"/>
-      <c r="H30" s="86">
+      <c r="F30" s="75"/>
+      <c r="G30" s="87"/>
+      <c r="H30" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I30" s="86"/>
-      <c r="J30" s="86"/>
-      <c r="K30" s="149"/>
-      <c r="L30" s="150"/>
+      <c r="I30" s="127"/>
+      <c r="J30" s="84"/>
+      <c r="K30" s="160"/>
+      <c r="L30" s="161"/>
     </row>
     <row r="31" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="59"/>
-      <c r="B31" s="110"/>
-      <c r="C31" s="60"/>
-      <c r="D31" s="61"/>
+      <c r="A31" s="58"/>
+      <c r="B31" s="108"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="129"/>
       <c r="E31" s="12"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="89"/>
-      <c r="H31" s="86">
+      <c r="F31" s="75"/>
+      <c r="G31" s="87"/>
+      <c r="H31" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I31" s="86"/>
-      <c r="J31" s="86"/>
-      <c r="K31" s="149"/>
-      <c r="L31" s="150"/>
+      <c r="I31" s="127"/>
+      <c r="J31" s="84"/>
+      <c r="K31" s="160"/>
+      <c r="L31" s="161"/>
     </row>
     <row r="32" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="59"/>
-      <c r="B32" s="110"/>
-      <c r="C32" s="60"/>
-      <c r="D32" s="61"/>
+      <c r="A32" s="58"/>
+      <c r="B32" s="108"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="129"/>
       <c r="E32" s="12"/>
-      <c r="F32" s="77"/>
-      <c r="G32" s="89"/>
-      <c r="H32" s="86">
+      <c r="F32" s="75"/>
+      <c r="G32" s="87"/>
+      <c r="H32" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I32" s="86"/>
-      <c r="J32" s="86"/>
-      <c r="K32" s="149"/>
-      <c r="L32" s="150"/>
+      <c r="I32" s="127"/>
+      <c r="J32" s="84"/>
+      <c r="K32" s="160"/>
+      <c r="L32" s="161"/>
     </row>
     <row r="33" spans="1:12" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="59"/>
-      <c r="B33" s="110"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="61"/>
+      <c r="A33" s="58"/>
+      <c r="B33" s="108"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="129"/>
       <c r="E33" s="12"/>
-      <c r="F33" s="77"/>
-      <c r="G33" s="89"/>
-      <c r="H33" s="86">
+      <c r="F33" s="75"/>
+      <c r="G33" s="87"/>
+      <c r="H33" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I33" s="86"/>
-      <c r="J33" s="86"/>
-      <c r="K33" s="149"/>
-      <c r="L33" s="150"/>
+      <c r="I33" s="127"/>
+      <c r="J33" s="84"/>
+      <c r="K33" s="160"/>
+      <c r="L33" s="161"/>
     </row>
     <row r="34" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="59"/>
-      <c r="B34" s="110"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="61"/>
+      <c r="A34" s="58"/>
+      <c r="B34" s="108"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="60"/>
       <c r="E34" s="12"/>
-      <c r="F34" s="77"/>
-      <c r="G34" s="89"/>
-      <c r="H34" s="86">
+      <c r="F34" s="75"/>
+      <c r="G34" s="87"/>
+      <c r="H34" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I34" s="86"/>
-      <c r="J34" s="86"/>
-      <c r="K34" s="149"/>
-      <c r="L34" s="150"/>
+      <c r="I34" s="84"/>
+      <c r="J34" s="84"/>
+      <c r="K34" s="160"/>
+      <c r="L34" s="161"/>
     </row>
     <row r="35" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="59"/>
-      <c r="B35" s="113"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="61"/>
+      <c r="A35" s="58"/>
+      <c r="B35" s="111"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="60"/>
       <c r="E35" s="46"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="89"/>
-      <c r="H35" s="86">
+      <c r="F35" s="75"/>
+      <c r="G35" s="87"/>
+      <c r="H35" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I35" s="86"/>
-      <c r="J35" s="86"/>
-      <c r="K35" s="143"/>
-      <c r="L35" s="144"/>
+      <c r="I35" s="84"/>
+      <c r="J35" s="84"/>
+      <c r="K35" s="154"/>
+      <c r="L35" s="155"/>
     </row>
     <row r="36" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="59"/>
-      <c r="B36" s="113"/>
-      <c r="C36" s="60"/>
-      <c r="D36" s="61"/>
+      <c r="A36" s="58"/>
+      <c r="B36" s="111"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="60"/>
       <c r="E36" s="46"/>
-      <c r="F36" s="77"/>
-      <c r="G36" s="89"/>
-      <c r="H36" s="86">
+      <c r="F36" s="75"/>
+      <c r="G36" s="87"/>
+      <c r="H36" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="86"/>
-      <c r="J36" s="86"/>
-      <c r="K36" s="143"/>
-      <c r="L36" s="144"/>
+      <c r="I36" s="84"/>
+      <c r="J36" s="84"/>
+      <c r="K36" s="154"/>
+      <c r="L36" s="155"/>
     </row>
     <row r="37" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="59"/>
-      <c r="B37" s="113"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="61"/>
+      <c r="A37" s="58"/>
+      <c r="B37" s="111"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="60"/>
       <c r="E37" s="46"/>
-      <c r="F37" s="77"/>
-      <c r="G37" s="89"/>
-      <c r="H37" s="86">
+      <c r="F37" s="75"/>
+      <c r="G37" s="87"/>
+      <c r="H37" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="86"/>
-      <c r="J37" s="86"/>
-      <c r="K37" s="143"/>
-      <c r="L37" s="144"/>
+      <c r="I37" s="84"/>
+      <c r="J37" s="84"/>
+      <c r="K37" s="154"/>
+      <c r="L37" s="155"/>
     </row>
     <row r="38" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="59"/>
-      <c r="B38" s="114"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="61"/>
+      <c r="A38" s="58"/>
+      <c r="B38" s="112"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="60"/>
       <c r="E38" s="46"/>
-      <c r="F38" s="77"/>
-      <c r="G38" s="89"/>
-      <c r="H38" s="86">
+      <c r="F38" s="75"/>
+      <c r="G38" s="87"/>
+      <c r="H38" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I38" s="86"/>
-      <c r="J38" s="86"/>
-      <c r="K38" s="143"/>
-      <c r="L38" s="144"/>
+      <c r="I38" s="84"/>
+      <c r="J38" s="84"/>
+      <c r="K38" s="154"/>
+      <c r="L38" s="155"/>
     </row>
     <row r="39" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="59"/>
-      <c r="B39" s="110"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="61"/>
+      <c r="A39" s="58"/>
+      <c r="B39" s="108"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="60"/>
       <c r="E39" s="14"/>
-      <c r="F39" s="77"/>
-      <c r="G39" s="89"/>
-      <c r="H39" s="86">
+      <c r="F39" s="75"/>
+      <c r="G39" s="87"/>
+      <c r="H39" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I39" s="86"/>
-      <c r="J39" s="86"/>
-      <c r="K39" s="165"/>
-      <c r="L39" s="166"/>
+      <c r="I39" s="84"/>
+      <c r="J39" s="84"/>
+      <c r="K39" s="194"/>
+      <c r="L39" s="195"/>
     </row>
     <row r="40" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="59"/>
-      <c r="B40" s="110"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="61"/>
+      <c r="A40" s="58"/>
+      <c r="B40" s="108"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="60"/>
       <c r="E40" s="43"/>
-      <c r="F40" s="77"/>
-      <c r="G40" s="89"/>
-      <c r="H40" s="86">
+      <c r="F40" s="75"/>
+      <c r="G40" s="87"/>
+      <c r="H40" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="86"/>
-      <c r="J40" s="86"/>
-      <c r="K40" s="161"/>
-      <c r="L40" s="162"/>
+      <c r="I40" s="84"/>
+      <c r="J40" s="84"/>
+      <c r="K40" s="162"/>
+      <c r="L40" s="163"/>
     </row>
     <row r="41" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="59"/>
-      <c r="B41" s="110"/>
-      <c r="C41" s="60"/>
-      <c r="D41" s="61"/>
+      <c r="A41" s="58"/>
+      <c r="B41" s="108"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="60"/>
       <c r="E41" s="43"/>
-      <c r="F41" s="77"/>
-      <c r="G41" s="89"/>
-      <c r="H41" s="86">
+      <c r="F41" s="75"/>
+      <c r="G41" s="87"/>
+      <c r="H41" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="86"/>
-      <c r="J41" s="86"/>
-      <c r="K41" s="161"/>
-      <c r="L41" s="162"/>
+      <c r="I41" s="84"/>
+      <c r="J41" s="84"/>
+      <c r="K41" s="162"/>
+      <c r="L41" s="163"/>
     </row>
     <row r="42" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="59"/>
-      <c r="B42" s="110"/>
-      <c r="C42" s="60"/>
-      <c r="D42" s="61"/>
+      <c r="A42" s="58"/>
+      <c r="B42" s="108"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="60"/>
       <c r="E42" s="14"/>
-      <c r="F42" s="77"/>
-      <c r="G42" s="89"/>
-      <c r="H42" s="86">
+      <c r="F42" s="75"/>
+      <c r="G42" s="87"/>
+      <c r="H42" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="86"/>
-      <c r="J42" s="86"/>
-      <c r="K42" s="161"/>
-      <c r="L42" s="162"/>
+      <c r="I42" s="84"/>
+      <c r="J42" s="84"/>
+      <c r="K42" s="162"/>
+      <c r="L42" s="163"/>
     </row>
     <row r="43" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="59"/>
-      <c r="B43" s="110"/>
-      <c r="C43" s="60"/>
-      <c r="D43" s="61"/>
+      <c r="A43" s="58"/>
+      <c r="B43" s="108"/>
+      <c r="C43" s="59"/>
+      <c r="D43" s="60"/>
       <c r="E43" s="14"/>
-      <c r="F43" s="77"/>
-      <c r="G43" s="89"/>
-      <c r="H43" s="86">
+      <c r="F43" s="75"/>
+      <c r="G43" s="87"/>
+      <c r="H43" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I43" s="86"/>
-      <c r="J43" s="86"/>
-      <c r="K43" s="161"/>
-      <c r="L43" s="162"/>
+      <c r="I43" s="84"/>
+      <c r="J43" s="84"/>
+      <c r="K43" s="162"/>
+      <c r="L43" s="163"/>
     </row>
     <row r="44" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="59"/>
-      <c r="B44" s="110"/>
-      <c r="C44" s="60"/>
-      <c r="D44" s="61"/>
+      <c r="A44" s="58"/>
+      <c r="B44" s="108"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="60"/>
       <c r="E44" s="14"/>
-      <c r="F44" s="77"/>
-      <c r="G44" s="89"/>
-      <c r="H44" s="86">
+      <c r="F44" s="75"/>
+      <c r="G44" s="87"/>
+      <c r="H44" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I44" s="86"/>
-      <c r="J44" s="86"/>
-      <c r="K44" s="163"/>
-      <c r="L44" s="164"/>
+      <c r="I44" s="84"/>
+      <c r="J44" s="84"/>
+      <c r="K44" s="164"/>
+      <c r="L44" s="165"/>
     </row>
     <row r="45" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="59"/>
-      <c r="B45" s="110"/>
-      <c r="C45" s="60"/>
-      <c r="D45" s="61"/>
+      <c r="A45" s="58"/>
+      <c r="B45" s="108"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="60"/>
       <c r="E45" s="14"/>
-      <c r="F45" s="77"/>
-      <c r="G45" s="89"/>
-      <c r="H45" s="86">
+      <c r="F45" s="75"/>
+      <c r="G45" s="87"/>
+      <c r="H45" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I45" s="86"/>
-      <c r="J45" s="86"/>
-      <c r="K45" s="163"/>
-      <c r="L45" s="164"/>
+      <c r="I45" s="84"/>
+      <c r="J45" s="84"/>
+      <c r="K45" s="164"/>
+      <c r="L45" s="165"/>
     </row>
     <row r="46" spans="1:12" ht="21.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A46" s="64"/>
-      <c r="B46" s="70"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="66"/>
+      <c r="A46" s="62"/>
+      <c r="B46" s="68"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="64"/>
       <c r="E46" s="47"/>
-      <c r="F46" s="80"/>
-      <c r="G46" s="93"/>
-      <c r="H46" s="86">
+      <c r="F46" s="78"/>
+      <c r="G46" s="91"/>
+      <c r="H46" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I46" s="190"/>
-      <c r="J46" s="190"/>
-      <c r="K46" s="137"/>
-      <c r="L46" s="138"/>
+      <c r="I46" s="122"/>
+      <c r="J46" s="122"/>
+      <c r="K46" s="148"/>
+      <c r="L46" s="149"/>
     </row>
     <row r="47" spans="1:12" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="67"/>
-      <c r="B47" s="68"/>
-      <c r="C47" s="139" t="s">
+      <c r="A47" s="65"/>
+      <c r="B47" s="66"/>
+      <c r="C47" s="150" t="s">
         <v>5</v>
       </c>
-      <c r="D47" s="139"/>
-      <c r="E47" s="104"/>
-      <c r="F47" s="167">
+      <c r="D47" s="150"/>
+      <c r="E47" s="102"/>
+      <c r="F47" s="192">
         <f>SUM(H8:H46)</f>
         <v>0</v>
       </c>
-      <c r="G47" s="168"/>
-      <c r="H47" s="168"/>
-      <c r="I47" s="116"/>
-      <c r="J47" s="116"/>
-      <c r="K47" s="94"/>
+      <c r="G47" s="193"/>
+      <c r="H47" s="193"/>
+      <c r="I47" s="114"/>
+      <c r="J47" s="114"/>
+      <c r="K47" s="92"/>
       <c r="L47" s="15"/>
     </row>
     <row r="48" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="181"/>
-      <c r="B48" s="182"/>
-      <c r="C48" s="186" t="s">
+      <c r="A48" s="118"/>
+      <c r="B48" s="119"/>
+      <c r="C48" s="188" t="s">
         <v>25</v>
       </c>
-      <c r="D48" s="187"/>
-      <c r="E48" s="183"/>
-      <c r="F48" s="188"/>
-      <c r="G48" s="189"/>
-      <c r="H48" s="189"/>
-      <c r="I48" s="193"/>
-      <c r="J48" s="191"/>
-      <c r="K48" s="184"/>
-      <c r="L48" s="185"/>
+      <c r="D48" s="189"/>
+      <c r="E48" s="196"/>
+      <c r="F48" s="190"/>
+      <c r="G48" s="191"/>
+      <c r="H48" s="191"/>
+      <c r="I48" s="125"/>
+      <c r="J48" s="123"/>
+      <c r="K48" s="120"/>
+      <c r="L48" s="121"/>
     </row>
     <row r="49" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A49" s="69"/>
-      <c r="B49" s="70"/>
-      <c r="C49" s="140" t="s">
+      <c r="A49" s="67"/>
+      <c r="B49" s="68"/>
+      <c r="C49" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="D49" s="140"/>
-      <c r="E49" s="71">
+      <c r="D49" s="151"/>
+      <c r="E49" s="69">
         <v>0.08</v>
       </c>
-      <c r="F49" s="169">
+      <c r="F49" s="176">
         <f>F47*$E$49</f>
         <v>0</v>
       </c>
-      <c r="G49" s="170"/>
-      <c r="H49" s="170"/>
-      <c r="I49" s="117"/>
-      <c r="J49" s="117"/>
-      <c r="K49" s="95"/>
+      <c r="G49" s="177"/>
+      <c r="H49" s="177"/>
+      <c r="I49" s="115"/>
+      <c r="J49" s="115"/>
+      <c r="K49" s="93"/>
       <c r="L49" s="16"/>
     </row>
     <row r="50" spans="1:12" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A50" s="72"/>
-      <c r="B50" s="73"/>
-      <c r="C50" s="122" t="s">
+      <c r="A50" s="70"/>
+      <c r="B50" s="71"/>
+      <c r="C50" s="133" t="s">
         <v>7</v>
       </c>
-      <c r="D50" s="122"/>
-      <c r="E50" s="105"/>
-      <c r="F50" s="171">
+      <c r="D50" s="133"/>
+      <c r="E50" s="103"/>
+      <c r="F50" s="178">
         <f>F47+F49</f>
         <v>0</v>
       </c>
-      <c r="G50" s="172"/>
-      <c r="H50" s="172"/>
-      <c r="I50" s="192"/>
-      <c r="J50" s="192"/>
-      <c r="K50" s="96"/>
+      <c r="G50" s="179"/>
+      <c r="H50" s="179"/>
+      <c r="I50" s="124"/>
+      <c r="J50" s="124"/>
+      <c r="K50" s="94"/>
       <c r="L50" s="18"/>
     </row>
     <row r="51" spans="1:12" s="21" customFormat="1" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A51" s="179" t="s">
+      <c r="A51" s="186" t="s">
         <v>17</v>
       </c>
-      <c r="B51" s="179"/>
-      <c r="C51" s="179"/>
+      <c r="B51" s="186"/>
+      <c r="C51" s="186"/>
       <c r="D51" s="19"/>
       <c r="E51" s="19"/>
       <c r="F51" s="20"/>
@@ -3861,40 +3870,40 @@
       <c r="H51" s="20"/>
       <c r="I51" s="20"/>
       <c r="J51" s="20"/>
-      <c r="K51" s="180"/>
-      <c r="L51" s="180"/>
+      <c r="K51" s="187"/>
+      <c r="L51" s="187"/>
     </row>
     <row r="52" spans="1:12" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A52" s="154" t="s">
+      <c r="A52" s="169" t="s">
         <v>1</v>
       </c>
-      <c r="B52" s="155"/>
-      <c r="C52" s="156" t="s">
+      <c r="B52" s="170"/>
+      <c r="C52" s="171" t="s">
         <v>14</v>
       </c>
-      <c r="D52" s="157"/>
+      <c r="D52" s="172"/>
       <c r="E52" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="F52" s="81" t="s">
+      <c r="F52" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="G52" s="87" t="s">
+      <c r="G52" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="H52" s="81" t="s">
+      <c r="H52" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="I52" s="115" t="s">
+      <c r="I52" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="J52" s="115" t="s">
+      <c r="J52" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="K52" s="156" t="s">
+      <c r="K52" s="171" t="s">
         <v>4</v>
       </c>
-      <c r="L52" s="158"/>
+      <c r="L52" s="173"/>
     </row>
     <row r="53" spans="1:12" ht="21.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A53" s="22"/>
@@ -3902,16 +3911,16 @@
       <c r="C53" s="24"/>
       <c r="D53" s="9"/>
       <c r="E53" s="25"/>
-      <c r="F53" s="82"/>
-      <c r="G53" s="100"/>
-      <c r="H53" s="97">
+      <c r="F53" s="80"/>
+      <c r="G53" s="98"/>
+      <c r="H53" s="95">
         <f>F53+G53</f>
         <v>0</v>
       </c>
-      <c r="I53" s="97"/>
-      <c r="J53" s="97"/>
-      <c r="K53" s="177"/>
-      <c r="L53" s="178"/>
+      <c r="I53" s="95"/>
+      <c r="J53" s="95"/>
+      <c r="K53" s="184"/>
+      <c r="L53" s="185"/>
     </row>
     <row r="54" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="48"/>
@@ -3919,16 +3928,16 @@
       <c r="C54" s="26"/>
       <c r="D54" s="10"/>
       <c r="E54" s="27"/>
-      <c r="F54" s="83"/>
-      <c r="G54" s="101"/>
-      <c r="H54" s="98">
+      <c r="F54" s="81"/>
+      <c r="G54" s="99"/>
+      <c r="H54" s="96">
         <f>F54+G54</f>
         <v>0</v>
       </c>
-      <c r="I54" s="98"/>
-      <c r="J54" s="98"/>
-      <c r="K54" s="175"/>
-      <c r="L54" s="176"/>
+      <c r="I54" s="96"/>
+      <c r="J54" s="96"/>
+      <c r="K54" s="182"/>
+      <c r="L54" s="183"/>
     </row>
     <row r="55" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="48"/>
@@ -3936,16 +3945,16 @@
       <c r="C55" s="26"/>
       <c r="D55" s="10"/>
       <c r="E55" s="27"/>
-      <c r="F55" s="83"/>
-      <c r="G55" s="101"/>
-      <c r="H55" s="98">
+      <c r="F55" s="81"/>
+      <c r="G55" s="99"/>
+      <c r="H55" s="96">
         <f>F55+G55</f>
         <v>0</v>
       </c>
-      <c r="I55" s="98"/>
-      <c r="J55" s="98"/>
-      <c r="K55" s="175"/>
-      <c r="L55" s="176"/>
+      <c r="I55" s="96"/>
+      <c r="J55" s="96"/>
+      <c r="K55" s="182"/>
+      <c r="L55" s="183"/>
     </row>
     <row r="56" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="48"/>
@@ -3953,16 +3962,16 @@
       <c r="C56" s="49"/>
       <c r="D56" s="10"/>
       <c r="E56" s="27"/>
-      <c r="F56" s="83"/>
-      <c r="G56" s="101"/>
-      <c r="H56" s="98">
+      <c r="F56" s="81"/>
+      <c r="G56" s="99"/>
+      <c r="H56" s="96">
         <f t="shared" ref="H56:H57" si="2">F56+G56</f>
         <v>0</v>
       </c>
-      <c r="I56" s="98"/>
-      <c r="J56" s="98"/>
-      <c r="K56" s="123"/>
-      <c r="L56" s="124"/>
+      <c r="I56" s="96"/>
+      <c r="J56" s="96"/>
+      <c r="K56" s="134"/>
+      <c r="L56" s="135"/>
     </row>
     <row r="57" spans="1:12" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A57" s="36"/>
@@ -3970,36 +3979,36 @@
       <c r="C57" s="38"/>
       <c r="D57" s="39"/>
       <c r="E57" s="40"/>
-      <c r="F57" s="84"/>
-      <c r="G57" s="102"/>
-      <c r="H57" s="99">
+      <c r="F57" s="82"/>
+      <c r="G57" s="100"/>
+      <c r="H57" s="97">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I57" s="99"/>
-      <c r="J57" s="99"/>
-      <c r="K57" s="125"/>
-      <c r="L57" s="126"/>
+      <c r="I57" s="97"/>
+      <c r="J57" s="97"/>
+      <c r="K57" s="136"/>
+      <c r="L57" s="137"/>
     </row>
     <row r="58" spans="1:12" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A58" s="72"/>
-      <c r="B58" s="73"/>
-      <c r="C58" s="122" t="s">
+      <c r="A58" s="70"/>
+      <c r="B58" s="71"/>
+      <c r="C58" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="D58" s="122"/>
-      <c r="E58" s="74" t="s">
+      <c r="D58" s="133"/>
+      <c r="E58" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="F58" s="173">
+      <c r="F58" s="180">
         <f>SUM(H53:H57)</f>
         <v>0</v>
       </c>
-      <c r="G58" s="174"/>
-      <c r="H58" s="174"/>
-      <c r="I58" s="118"/>
-      <c r="J58" s="118"/>
-      <c r="K58" s="103"/>
+      <c r="G58" s="181"/>
+      <c r="H58" s="181"/>
+      <c r="I58" s="116"/>
+      <c r="J58" s="116"/>
+      <c r="K58" s="101"/>
       <c r="L58" s="28"/>
     </row>
     <row r="59" spans="1:12" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -4018,61 +4027,61 @@
     </row>
     <row r="60" spans="1:12" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A60" s="32"/>
-      <c r="B60" s="75" t="s">
+      <c r="B60" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="C60" s="132" t="s">
+      <c r="C60" s="143" t="s">
         <v>21</v>
       </c>
-      <c r="D60" s="132"/>
-      <c r="E60" s="106"/>
-      <c r="F60" s="131">
+      <c r="D60" s="143"/>
+      <c r="E60" s="104"/>
+      <c r="F60" s="142">
         <f>F50+F58</f>
         <v>0</v>
       </c>
-      <c r="G60" s="131"/>
-      <c r="H60" s="131"/>
-      <c r="I60" s="119"/>
-      <c r="J60" s="119"/>
-      <c r="K60" s="127" t="s">
+      <c r="G60" s="142"/>
+      <c r="H60" s="142"/>
+      <c r="I60" s="117"/>
+      <c r="J60" s="117"/>
+      <c r="K60" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="L60" s="128"/>
+      <c r="L60" s="139"/>
     </row>
     <row r="61" spans="1:12" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="129"/>
-      <c r="B61" s="129"/>
-      <c r="C61" s="129"/>
-      <c r="D61" s="129"/>
-      <c r="E61" s="130"/>
-      <c r="F61" s="107" t="s">
+      <c r="A61" s="140"/>
+      <c r="B61" s="140"/>
+      <c r="C61" s="140"/>
+      <c r="D61" s="140"/>
+      <c r="E61" s="141"/>
+      <c r="F61" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="G61" s="133">
+      <c r="G61" s="144">
         <f>B3</f>
         <v>0</v>
       </c>
-      <c r="H61" s="133"/>
-      <c r="I61" s="133"/>
-      <c r="J61" s="133"/>
-      <c r="K61" s="133"/>
-      <c r="L61" s="134"/>
+      <c r="H61" s="144"/>
+      <c r="I61" s="144"/>
+      <c r="J61" s="144"/>
+      <c r="K61" s="144"/>
+      <c r="L61" s="145"/>
     </row>
     <row r="62" spans="1:12" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A62" s="120"/>
-      <c r="B62" s="120"/>
-      <c r="C62" s="120"/>
-      <c r="D62" s="120"/>
-      <c r="E62" s="121"/>
-      <c r="F62" s="108" t="s">
+      <c r="A62" s="131"/>
+      <c r="B62" s="131"/>
+      <c r="C62" s="131"/>
+      <c r="D62" s="131"/>
+      <c r="E62" s="132"/>
+      <c r="F62" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="G62" s="135"/>
-      <c r="H62" s="135"/>
-      <c r="I62" s="135"/>
-      <c r="J62" s="135"/>
-      <c r="K62" s="135"/>
-      <c r="L62" s="136"/>
+      <c r="G62" s="146"/>
+      <c r="H62" s="146"/>
+      <c r="I62" s="146"/>
+      <c r="J62" s="146"/>
+      <c r="K62" s="146"/>
+      <c r="L62" s="147"/>
     </row>
     <row r="63" spans="1:12" ht="20.25" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A63" s="33"/>
@@ -4090,44 +4099,38 @@
     </row>
   </sheetData>
   <mergeCells count="74">
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="F48:H48"/>
     <mergeCell ref="K31:L31"/>
     <mergeCell ref="K32:L32"/>
     <mergeCell ref="K33:L33"/>
     <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="K45:L45"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="A51:C51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="A52:B52"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="K52:L52"/>
-    <mergeCell ref="F47:H47"/>
     <mergeCell ref="F49:H49"/>
     <mergeCell ref="F50:H50"/>
     <mergeCell ref="F58:H58"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="K39:L39"/>
     <mergeCell ref="K40:L40"/>
     <mergeCell ref="K44:L44"/>
     <mergeCell ref="K1:L1"/>
@@ -4138,6 +4141,12 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="A6:B6"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
     <mergeCell ref="K46:L46"/>
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="C49:D49"/>

--- a/EXTB/Format/付帯設備利用明細書_シアター.xlsx
+++ b/EXTB/Format/付帯設備利用明細書_シアター.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\奥田\source\repos\EXT\EXTB\Format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1826F779-16B1-4577-91B5-F4CA67303879}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3FC70C-6621-4885-8995-71CF2856E0B3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7065" yWindow="-17310" windowWidth="21600" windowHeight="12735" tabRatio="826" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5160" yWindow="0" windowWidth="23040" windowHeight="12264" tabRatio="826" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シアター" sheetId="50" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">シアター!$A$1:$L$64</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">シアター!$A$1:$L$65</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>様</t>
     <rPh sb="0" eb="1">
@@ -55,13 +55,6 @@
     <t>小計</t>
     <rPh sb="0" eb="2">
       <t>ショウケイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>消費税</t>
-    <rPh sb="0" eb="3">
-      <t>ショウヒゼイ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -197,13 +190,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>消費税</t>
-    <rPh sb="0" eb="3">
-      <t>ショウヒゼイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>税率</t>
     <rPh sb="0" eb="2">
       <t>ゼイリツ</t>
@@ -214,6 +200,13 @@
     <t>税額</t>
     <rPh sb="0" eb="2">
       <t>ゼイガク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>消費税</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒゼイ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -228,7 +221,7 @@
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="44" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -523,6 +516,13 @@
     <font>
       <sz val="6"/>
       <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="3" tint="-0.249977111117893"/>
       <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
@@ -542,7 +542,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="55">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -1198,6 +1198,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top style="double">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1222,7 +1235,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1281,9 +1294,6 @@
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
@@ -1319,9 +1329,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
@@ -1351,9 +1358,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="38" fontId="9" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1379,6 +1383,9 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="6" fontId="35" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="36" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1391,6 +1398,9 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="6" fontId="35" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="36" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1544,251 +1554,266 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="20" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="21" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="37" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="16" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="16" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="33" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="33" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="26" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="26" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="27" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="27" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="38" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="16" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="16" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="16" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="16" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="7" fillId="0" borderId="47" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="7" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="17" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="17" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="18" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="38" fontId="18" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="38" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="16" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="38" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="38" fontId="7" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="6" fontId="7" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="6" fontId="38" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="20" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="21" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="23" fillId="0" borderId="47" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="6" fontId="23" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="23" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="35" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="35" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="35" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="26" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="26" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="27" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="27" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="38" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="16" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="16" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="16" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="16" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="16" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="16" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="16" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="33" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="33" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="17" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="17" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="23" fillId="0" borderId="47" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="23" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="7" fillId="0" borderId="48" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="7" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="18" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="38" fontId="18" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="37" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1820,13 +1845,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>272415</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1857375</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1843,8 +1868,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="19050" y="14058900"/>
-          <a:ext cx="2219325" cy="1228725"/>
+          <a:off x="22860" y="14161770"/>
+          <a:ext cx="2217420" cy="1245870"/>
           <a:chOff x="38100" y="13115925"/>
           <a:chExt cx="2171700" cy="1076325"/>
         </a:xfrm>
@@ -2145,538 +2170,550 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>790403</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>477983</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>301918</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>807075</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>588645</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>561975</xdr:rowOff>
+      <xdr:rowOff>567690</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="グループ化 1">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="6324428" y="857250"/>
-          <a:ext cx="4998247" cy="1257300"/>
-          <a:chOff x="6324428" y="857250"/>
-          <a:chExt cx="3531397" cy="1257300"/>
+          <a:off x="7777943" y="1551598"/>
+          <a:ext cx="2251882" cy="570572"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="20" name="グループ化 19">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="6324428" y="1547788"/>
-            <a:ext cx="3181521" cy="566762"/>
-            <a:chOff x="6324428" y="1462063"/>
-            <a:chExt cx="3181521" cy="566762"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="12" name="テキスト ボックス 11">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6324428" y="1462063"/>
-              <a:ext cx="3181521" cy="566762"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525" cmpd="sng">
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" altLang="ja-JP" sz="1800" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Franklin Gothic Demi" panose="020B0703020102020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>EX THEATER ROPPONGI </a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-                <a:latin typeface="Franklin Gothic Demi" panose="020B0703020102020204" pitchFamily="34" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="13" name="テキスト ボックス 12">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6342224" y="1682724"/>
-              <a:ext cx="1887375" cy="294322"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525" cmpd="sng">
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>TEL:03-6406-2220</a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="19" name="グループ化 18">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="6324600" y="857250"/>
-            <a:ext cx="3531225" cy="764782"/>
-            <a:chOff x="6324600" y="695325"/>
-            <a:chExt cx="3531225" cy="764782"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="15" name="テキスト ボックス 14">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6330849" y="1128839"/>
-              <a:ext cx="3440544" cy="331268"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525" cmpd="sng">
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                <a:lnSpc>
-                  <a:spcPct val="100000"/>
-                </a:lnSpc>
-                <a:spcBef>
-                  <a:spcPts val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPts val="0"/>
-                </a:spcAft>
-                <a:buClrTx/>
-                <a:buSzTx/>
-                <a:buFontTx/>
-                <a:buNone/>
-                <a:tabLst/>
-                <a:defRPr/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="ja-JP" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>〒</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>106-0031 </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="ja-JP" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>東京都港区西麻布</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>1-2-9 EX</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="ja-JP" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>タワー</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>16</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="ja-JP" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>階</a:t>
-              </a:r>
-              <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
-                <a:effectLst/>
-                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3" name="テキスト ボックス 2">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6324600" y="695325"/>
-              <a:ext cx="3531225" cy="360000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525" cmpd="sng">
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                <a:lnSpc>
-                  <a:spcPct val="100000"/>
-                </a:lnSpc>
-                <a:spcBef>
-                  <a:spcPts val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPts val="0"/>
-                </a:spcAft>
-                <a:buClrTx/>
-                <a:buSzTx/>
-                <a:buFontTx/>
-                <a:buNone/>
-                <a:tabLst/>
-                <a:defRPr/>
-              </a:pPr>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-                  <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>株式会社テレビ朝日 総合ビジネス局</a:t>
-              </a:r>
-              <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-                <a:effectLst/>
-                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="17" name="テキスト ボックス 16">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6324600" y="904875"/>
-              <a:ext cx="3531225" cy="360000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525" cmpd="sng">
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                <a:lnSpc>
-                  <a:spcPct val="100000"/>
-                </a:lnSpc>
-                <a:spcBef>
-                  <a:spcPts val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPts val="0"/>
-                </a:spcAft>
-                <a:buClrTx/>
-                <a:buSzTx/>
-                <a:buFontTx/>
-                <a:buNone/>
-                <a:tabLst/>
-                <a:defRPr/>
-              </a:pPr>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="1">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>イベント事業センター</a:t>
-              </a:r>
-              <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-                <a:effectLst/>
-                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-    </xdr:grpSp>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1800" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Franklin Gothic Demi" panose="020B0703020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>EX THEATER ROPPONGI </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:latin typeface="Franklin Gothic Demi" panose="020B0703020102020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>513016</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>225399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>588646</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>529246</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7812976" y="1779879"/>
+          <a:ext cx="1431990" cy="303847"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>TEL:03-6406-2220</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>634243</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>41084</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>73267</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7934203" y="1290764"/>
+          <a:ext cx="3274817" cy="336983"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>〒</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>106-0031 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>東京都港区西麻布</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>1-2-9 EX</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>タワー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>16</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>階</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
+            <a:effectLst/>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>554337</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>224790</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>630555</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>270465</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7854297" y="864870"/>
+          <a:ext cx="2217438" cy="350475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>株式会社テレビ朝日 総合ビジネス局</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>554337</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>630555</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>186645</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7854297" y="1062990"/>
+          <a:ext cx="2217438" cy="373335"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>イベント事業</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>部</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3009,20 +3046,20 @@
   </sheetPr>
   <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A27" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="5" style="4" customWidth="1"/>
     <col min="2" max="2" width="41.875" style="4" customWidth="1"/>
     <col min="3" max="3" width="8.375" style="4" customWidth="1"/>
     <col min="4" max="4" width="10.625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="6.75" style="4" customWidth="1"/>
+    <col min="5" max="5" width="6.875" style="4" customWidth="1"/>
     <col min="6" max="8" width="11.5" style="4" customWidth="1"/>
-    <col min="9" max="9" width="7.75" style="4" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="4" customWidth="1"/>
+    <col min="9" max="9" width="6.25" style="4" customWidth="1"/>
+    <col min="10" max="10" width="10.25" style="4" customWidth="1"/>
     <col min="11" max="12" width="11.625" style="4" customWidth="1"/>
     <col min="13" max="13" width="9" style="4" customWidth="1"/>
     <col min="14" max="14" width="8.875" style="4" customWidth="1"/>
@@ -3031,838 +3068,831 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
-      <c r="K1" s="166"/>
-      <c r="L1" s="166"/>
+      <c r="K1" s="156"/>
+      <c r="L1" s="156"/>
     </row>
     <row r="2" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="167" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="167"/>
-      <c r="L2" s="167"/>
+      <c r="A2" s="157" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="157"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="157"/>
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="35"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="50"/>
+      <c r="G3" s="47"/>
     </row>
     <row r="4" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="174"/>
-      <c r="C4" s="174"/>
-      <c r="G4" s="50"/>
+      <c r="B4" s="164"/>
+      <c r="C4" s="164"/>
+      <c r="G4" s="47"/>
     </row>
     <row r="5" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="168"/>
-      <c r="C5" s="168"/>
-      <c r="G5" s="51"/>
+      <c r="B5" s="158"/>
+      <c r="C5" s="158"/>
+      <c r="G5" s="48"/>
     </row>
     <row r="6" spans="1:12" s="7" customFormat="1" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="175" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="175"/>
+      <c r="A6" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="165"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="53"/>
+      <c r="G6" s="50"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
-      <c r="L6" s="52"/>
+      <c r="L6" s="49"/>
     </row>
     <row r="7" spans="1:12" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="169" t="s">
+      <c r="A7" s="159" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="170"/>
-      <c r="C7" s="171" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="172"/>
-      <c r="E7" s="54" t="s">
+      <c r="B7" s="160"/>
+      <c r="C7" s="161" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="162"/>
+      <c r="E7" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="79" t="s">
+      <c r="F7" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="55" t="s">
+      <c r="G7" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="113" t="s">
+      <c r="H7" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="115" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="115" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="161" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" s="163"/>
+    </row>
+    <row r="8" spans="1:12" ht="21.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="53"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="73">
+        <f>F8+G8</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="122"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="154"/>
+      <c r="L8" s="155"/>
+    </row>
+    <row r="9" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="56"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="83">
+        <f>F9+G9</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="123"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="150"/>
+      <c r="L9" s="151"/>
+    </row>
+    <row r="10" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="56"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="83">
+        <f t="shared" ref="H10:H46" si="0">F10+G10</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="123"/>
+      <c r="J10" s="83"/>
+      <c r="K10" s="150"/>
+      <c r="L10" s="151"/>
+    </row>
+    <row r="11" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="56"/>
+      <c r="B11" s="108"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="123"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="150"/>
+      <c r="L11" s="151"/>
+    </row>
+    <row r="12" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="56"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="123"/>
+      <c r="J12" s="83"/>
+      <c r="K12" s="150"/>
+      <c r="L12" s="151"/>
+    </row>
+    <row r="13" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="56"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="123"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="150"/>
+      <c r="L13" s="151"/>
+    </row>
+    <row r="14" spans="1:12" s="40" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="56"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="123"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="152"/>
+      <c r="L14" s="153"/>
+    </row>
+    <row r="15" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="56"/>
+      <c r="B15" s="108"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="123"/>
+      <c r="J15" s="83"/>
+      <c r="K15" s="150"/>
+      <c r="L15" s="151"/>
+    </row>
+    <row r="16" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="56"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="123"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="150"/>
+      <c r="L16" s="151"/>
+    </row>
+    <row r="17" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="56"/>
+      <c r="B17" s="108"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="123"/>
+      <c r="J17" s="83"/>
+      <c r="K17" s="150"/>
+      <c r="L17" s="151"/>
+    </row>
+    <row r="18" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="56"/>
+      <c r="B18" s="108"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="123"/>
+      <c r="J18" s="83"/>
+      <c r="K18" s="150"/>
+      <c r="L18" s="151"/>
+    </row>
+    <row r="19" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="56"/>
+      <c r="B19" s="109"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="123"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="128"/>
+      <c r="L19" s="129"/>
+    </row>
+    <row r="20" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="56"/>
+      <c r="B20" s="107"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="123"/>
+      <c r="J20" s="83"/>
+      <c r="K20" s="130"/>
+      <c r="L20" s="131"/>
+    </row>
+    <row r="21" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="56"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="83">
+        <f t="shared" ref="H21:H34" si="1">F21+G21</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="123"/>
+      <c r="J21" s="83"/>
+      <c r="K21" s="130"/>
+      <c r="L21" s="131"/>
+    </row>
+    <row r="22" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="56"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="83">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="123"/>
+      <c r="J22" s="83"/>
+      <c r="K22" s="130"/>
+      <c r="L22" s="131"/>
+    </row>
+    <row r="23" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="56"/>
+      <c r="B23" s="107"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="83">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="123"/>
+      <c r="J23" s="83"/>
+      <c r="K23" s="130"/>
+      <c r="L23" s="131"/>
+    </row>
+    <row r="24" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="56"/>
+      <c r="B24" s="107"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="83">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="123"/>
+      <c r="J24" s="83"/>
+      <c r="K24" s="130"/>
+      <c r="L24" s="131"/>
+    </row>
+    <row r="25" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="56"/>
+      <c r="B25" s="107"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="83">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="123"/>
+      <c r="J25" s="83"/>
+      <c r="K25" s="130"/>
+      <c r="L25" s="131"/>
+    </row>
+    <row r="26" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="56"/>
+      <c r="B26" s="107"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="83">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="123"/>
+      <c r="J26" s="83"/>
+      <c r="K26" s="130"/>
+      <c r="L26" s="131"/>
+    </row>
+    <row r="27" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="56"/>
+      <c r="B27" s="107"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="86"/>
+      <c r="H27" s="83">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="123"/>
+      <c r="J27" s="83"/>
+      <c r="K27" s="130"/>
+      <c r="L27" s="131"/>
+    </row>
+    <row r="28" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="56"/>
+      <c r="B28" s="107"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="86"/>
+      <c r="H28" s="83">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="123"/>
+      <c r="J28" s="83"/>
+      <c r="K28" s="130"/>
+      <c r="L28" s="131"/>
+    </row>
+    <row r="29" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="56"/>
+      <c r="B29" s="107"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="83">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="123"/>
+      <c r="J29" s="83"/>
+      <c r="K29" s="130"/>
+      <c r="L29" s="131"/>
+    </row>
+    <row r="30" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="56"/>
+      <c r="B30" s="107"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="86"/>
+      <c r="H30" s="83">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="123"/>
+      <c r="J30" s="83"/>
+      <c r="K30" s="130"/>
+      <c r="L30" s="131"/>
+    </row>
+    <row r="31" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="56"/>
+      <c r="B31" s="107"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="86"/>
+      <c r="H31" s="83">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="123"/>
+      <c r="J31" s="83"/>
+      <c r="K31" s="130"/>
+      <c r="L31" s="131"/>
+    </row>
+    <row r="32" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="56"/>
+      <c r="B32" s="107"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="86"/>
+      <c r="H32" s="83">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="123"/>
+      <c r="J32" s="83"/>
+      <c r="K32" s="130"/>
+      <c r="L32" s="131"/>
+    </row>
+    <row r="33" spans="1:12" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="56"/>
+      <c r="B33" s="107"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="86"/>
+      <c r="H33" s="83">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="123"/>
+      <c r="J33" s="83"/>
+      <c r="K33" s="130"/>
+      <c r="L33" s="131"/>
+    </row>
+    <row r="34" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="56"/>
+      <c r="B34" s="107"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="74"/>
+      <c r="G34" s="86"/>
+      <c r="H34" s="83">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="123"/>
+      <c r="J34" s="83"/>
+      <c r="K34" s="130"/>
+      <c r="L34" s="131"/>
+    </row>
+    <row r="35" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="56"/>
+      <c r="B35" s="110"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="74"/>
+      <c r="G35" s="86"/>
+      <c r="H35" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="123"/>
+      <c r="J35" s="83"/>
+      <c r="K35" s="150"/>
+      <c r="L35" s="151"/>
+    </row>
+    <row r="36" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="56"/>
+      <c r="B36" s="110"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="74"/>
+      <c r="G36" s="86"/>
+      <c r="H36" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="123"/>
+      <c r="J36" s="83"/>
+      <c r="K36" s="150"/>
+      <c r="L36" s="151"/>
+    </row>
+    <row r="37" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="56"/>
+      <c r="B37" s="110"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="74"/>
+      <c r="G37" s="86"/>
+      <c r="H37" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="123"/>
+      <c r="J37" s="83"/>
+      <c r="K37" s="150"/>
+      <c r="L37" s="151"/>
+    </row>
+    <row r="38" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="56"/>
+      <c r="B38" s="111"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="74"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="123"/>
+      <c r="J38" s="83"/>
+      <c r="K38" s="150"/>
+      <c r="L38" s="151"/>
+    </row>
+    <row r="39" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="56"/>
+      <c r="B39" s="107"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="74"/>
+      <c r="G39" s="86"/>
+      <c r="H39" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="123"/>
+      <c r="J39" s="83"/>
+      <c r="K39" s="178"/>
+      <c r="L39" s="179"/>
+    </row>
+    <row r="40" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="56"/>
+      <c r="B40" s="107"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="74"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="123"/>
+      <c r="J40" s="83"/>
+      <c r="K40" s="174"/>
+      <c r="L40" s="175"/>
+    </row>
+    <row r="41" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="56"/>
+      <c r="B41" s="107"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="74"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="123"/>
+      <c r="J41" s="83"/>
+      <c r="K41" s="174"/>
+      <c r="L41" s="175"/>
+    </row>
+    <row r="42" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="56"/>
+      <c r="B42" s="107"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="74"/>
+      <c r="G42" s="86"/>
+      <c r="H42" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="123"/>
+      <c r="J42" s="83"/>
+      <c r="K42" s="174"/>
+      <c r="L42" s="175"/>
+    </row>
+    <row r="43" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="56"/>
+      <c r="B43" s="107"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="74"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="123"/>
+      <c r="J43" s="83"/>
+      <c r="K43" s="174"/>
+      <c r="L43" s="175"/>
+    </row>
+    <row r="44" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="56"/>
+      <c r="B44" s="107"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="58"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="74"/>
+      <c r="G44" s="86"/>
+      <c r="H44" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="123"/>
+      <c r="J44" s="83"/>
+      <c r="K44" s="176"/>
+      <c r="L44" s="177"/>
+    </row>
+    <row r="45" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="56"/>
+      <c r="B45" s="107"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="74"/>
+      <c r="G45" s="86"/>
+      <c r="H45" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="123"/>
+      <c r="J45" s="83"/>
+      <c r="K45" s="176"/>
+      <c r="L45" s="177"/>
+    </row>
+    <row r="46" spans="1:12" ht="21.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A46" s="61"/>
+      <c r="B46" s="67"/>
+      <c r="C46" s="62"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="77"/>
+      <c r="G46" s="90"/>
+      <c r="H46" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I46" s="124"/>
+      <c r="J46" s="116"/>
+      <c r="K46" s="180"/>
+      <c r="L46" s="181"/>
+    </row>
+    <row r="47" spans="1:12" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="64"/>
+      <c r="B47" s="65"/>
+      <c r="C47" s="199" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="199"/>
+      <c r="E47" s="101"/>
+      <c r="F47" s="186">
+        <f>SUM(H8:H46)</f>
+        <v>0</v>
+      </c>
+      <c r="G47" s="187"/>
+      <c r="H47" s="187"/>
+      <c r="I47" s="188"/>
+      <c r="J47" s="189"/>
+      <c r="K47" s="91"/>
+      <c r="L47" s="15"/>
+    </row>
+    <row r="48" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="117"/>
+      <c r="B48" s="118"/>
+      <c r="C48" s="184" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="113" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" s="171" t="s">
-        <v>4</v>
-      </c>
-      <c r="L7" s="173"/>
-    </row>
-    <row r="8" spans="1:12" ht="21.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="56"/>
-      <c r="B8" s="107"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="128"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="74">
-        <f>F8+G8</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="126"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="152"/>
-      <c r="L8" s="153"/>
-    </row>
-    <row r="9" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="58"/>
-      <c r="B9" s="108"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="129"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="84">
-        <f>F9+G9</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="127"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="154"/>
-      <c r="L9" s="155"/>
-    </row>
-    <row r="10" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="58"/>
-      <c r="B10" s="108"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="129"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="84">
-        <f t="shared" ref="H10:H46" si="0">F10+G10</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="127"/>
-      <c r="J10" s="84"/>
-      <c r="K10" s="154"/>
-      <c r="L10" s="155"/>
-    </row>
-    <row r="11" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="58"/>
-      <c r="B11" s="109"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="130"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="84">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="127"/>
-      <c r="J11" s="84"/>
-      <c r="K11" s="154"/>
-      <c r="L11" s="155"/>
-    </row>
-    <row r="12" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="58"/>
-      <c r="B12" s="109"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="84">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="127"/>
-      <c r="J12" s="84"/>
-      <c r="K12" s="154"/>
-      <c r="L12" s="155"/>
-    </row>
-    <row r="13" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="58"/>
-      <c r="B13" s="109"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="130"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="84">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="127"/>
-      <c r="J13" s="84"/>
-      <c r="K13" s="154"/>
-      <c r="L13" s="155"/>
-    </row>
-    <row r="14" spans="1:12" s="42" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="58"/>
-      <c r="B14" s="109"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="130"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="84">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="127"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="156"/>
-      <c r="L14" s="157"/>
-    </row>
-    <row r="15" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="58"/>
-      <c r="B15" s="109"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="130"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="84">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="127"/>
-      <c r="J15" s="84"/>
-      <c r="K15" s="154"/>
-      <c r="L15" s="155"/>
-    </row>
-    <row r="16" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="58"/>
-      <c r="B16" s="109"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="130"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="84">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="127"/>
-      <c r="J16" s="84"/>
-      <c r="K16" s="154"/>
-      <c r="L16" s="155"/>
-    </row>
-    <row r="17" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="58"/>
-      <c r="B17" s="109"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="84">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="127"/>
-      <c r="J17" s="84"/>
-      <c r="K17" s="154"/>
-      <c r="L17" s="155"/>
-    </row>
-    <row r="18" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="58"/>
-      <c r="B18" s="109"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="130"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="84">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="127"/>
-      <c r="J18" s="84"/>
-      <c r="K18" s="154"/>
-      <c r="L18" s="155"/>
-    </row>
-    <row r="19" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="58"/>
-      <c r="B19" s="110"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="130"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="84">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="127"/>
-      <c r="J19" s="84"/>
-      <c r="K19" s="158"/>
-      <c r="L19" s="159"/>
-    </row>
-    <row r="20" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="58"/>
-      <c r="B20" s="108"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="129"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="84">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="127"/>
-      <c r="J20" s="84"/>
-      <c r="K20" s="160"/>
-      <c r="L20" s="161"/>
-    </row>
-    <row r="21" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="58"/>
-      <c r="B21" s="108"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="129"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="87"/>
-      <c r="H21" s="84">
-        <f t="shared" ref="H21:H34" si="1">F21+G21</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="127"/>
-      <c r="J21" s="84"/>
-      <c r="K21" s="160"/>
-      <c r="L21" s="161"/>
-    </row>
-    <row r="22" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="58"/>
-      <c r="B22" s="108"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="129"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="84">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="127"/>
-      <c r="J22" s="84"/>
-      <c r="K22" s="160"/>
-      <c r="L22" s="161"/>
-    </row>
-    <row r="23" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="58"/>
-      <c r="B23" s="108"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="129"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="84">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="127"/>
-      <c r="J23" s="84"/>
-      <c r="K23" s="160"/>
-      <c r="L23" s="161"/>
-    </row>
-    <row r="24" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="58"/>
-      <c r="B24" s="108"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="129"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="84">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="127"/>
-      <c r="J24" s="84"/>
-      <c r="K24" s="160"/>
-      <c r="L24" s="161"/>
-    </row>
-    <row r="25" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="58"/>
-      <c r="B25" s="108"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="129"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="87"/>
-      <c r="H25" s="84">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="127"/>
-      <c r="J25" s="84"/>
-      <c r="K25" s="160"/>
-      <c r="L25" s="161"/>
-    </row>
-    <row r="26" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="58"/>
-      <c r="B26" s="108"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="129"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="87"/>
-      <c r="H26" s="84">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="127"/>
-      <c r="J26" s="84"/>
-      <c r="K26" s="160"/>
-      <c r="L26" s="161"/>
-    </row>
-    <row r="27" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="58"/>
-      <c r="B27" s="108"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="129"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="87"/>
-      <c r="H27" s="84">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="127"/>
-      <c r="J27" s="84"/>
-      <c r="K27" s="160"/>
-      <c r="L27" s="161"/>
-    </row>
-    <row r="28" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="58"/>
-      <c r="B28" s="108"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="129"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="75"/>
-      <c r="G28" s="87"/>
-      <c r="H28" s="84">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="127"/>
-      <c r="J28" s="84"/>
-      <c r="K28" s="160"/>
-      <c r="L28" s="161"/>
-    </row>
-    <row r="29" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="58"/>
-      <c r="B29" s="108"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="129"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="87"/>
-      <c r="H29" s="84">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="127"/>
-      <c r="J29" s="84"/>
-      <c r="K29" s="160"/>
-      <c r="L29" s="161"/>
-    </row>
-    <row r="30" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="58"/>
-      <c r="B30" s="108"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="129"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="75"/>
-      <c r="G30" s="87"/>
-      <c r="H30" s="84">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I30" s="127"/>
-      <c r="J30" s="84"/>
-      <c r="K30" s="160"/>
-      <c r="L30" s="161"/>
-    </row>
-    <row r="31" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="58"/>
-      <c r="B31" s="108"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="129"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="75"/>
-      <c r="G31" s="87"/>
-      <c r="H31" s="84">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="127"/>
-      <c r="J31" s="84"/>
-      <c r="K31" s="160"/>
-      <c r="L31" s="161"/>
-    </row>
-    <row r="32" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="58"/>
-      <c r="B32" s="108"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="129"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="75"/>
-      <c r="G32" s="87"/>
-      <c r="H32" s="84">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="127"/>
-      <c r="J32" s="84"/>
-      <c r="K32" s="160"/>
-      <c r="L32" s="161"/>
-    </row>
-    <row r="33" spans="1:12" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="58"/>
-      <c r="B33" s="108"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="129"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="75"/>
-      <c r="G33" s="87"/>
-      <c r="H33" s="84">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="127"/>
-      <c r="J33" s="84"/>
-      <c r="K33" s="160"/>
-      <c r="L33" s="161"/>
-    </row>
-    <row r="34" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="58"/>
-      <c r="B34" s="108"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="87"/>
-      <c r="H34" s="84">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I34" s="84"/>
-      <c r="J34" s="84"/>
-      <c r="K34" s="160"/>
-      <c r="L34" s="161"/>
-    </row>
-    <row r="35" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="58"/>
-      <c r="B35" s="111"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="75"/>
-      <c r="G35" s="87"/>
-      <c r="H35" s="84">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="84"/>
-      <c r="J35" s="84"/>
-      <c r="K35" s="154"/>
-      <c r="L35" s="155"/>
-    </row>
-    <row r="36" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="58"/>
-      <c r="B36" s="111"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="75"/>
-      <c r="G36" s="87"/>
-      <c r="H36" s="84">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I36" s="84"/>
-      <c r="J36" s="84"/>
-      <c r="K36" s="154"/>
-      <c r="L36" s="155"/>
-    </row>
-    <row r="37" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="58"/>
-      <c r="B37" s="111"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="75"/>
-      <c r="G37" s="87"/>
-      <c r="H37" s="84">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I37" s="84"/>
-      <c r="J37" s="84"/>
-      <c r="K37" s="154"/>
-      <c r="L37" s="155"/>
-    </row>
-    <row r="38" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="58"/>
-      <c r="B38" s="112"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="75"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="84">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I38" s="84"/>
-      <c r="J38" s="84"/>
-      <c r="K38" s="154"/>
-      <c r="L38" s="155"/>
-    </row>
-    <row r="39" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="58"/>
-      <c r="B39" s="108"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="75"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="84">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I39" s="84"/>
-      <c r="J39" s="84"/>
-      <c r="K39" s="194"/>
-      <c r="L39" s="195"/>
-    </row>
-    <row r="40" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="58"/>
-      <c r="B40" s="108"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="75"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="84">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I40" s="84"/>
-      <c r="J40" s="84"/>
-      <c r="K40" s="162"/>
-      <c r="L40" s="163"/>
-    </row>
-    <row r="41" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="58"/>
-      <c r="B41" s="108"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="75"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="84">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I41" s="84"/>
-      <c r="J41" s="84"/>
-      <c r="K41" s="162"/>
-      <c r="L41" s="163"/>
-    </row>
-    <row r="42" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="58"/>
-      <c r="B42" s="108"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="60"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="75"/>
-      <c r="G42" s="87"/>
-      <c r="H42" s="84">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I42" s="84"/>
-      <c r="J42" s="84"/>
-      <c r="K42" s="162"/>
-      <c r="L42" s="163"/>
-    </row>
-    <row r="43" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="58"/>
-      <c r="B43" s="108"/>
-      <c r="C43" s="59"/>
-      <c r="D43" s="60"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="75"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="84">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I43" s="84"/>
-      <c r="J43" s="84"/>
-      <c r="K43" s="162"/>
-      <c r="L43" s="163"/>
-    </row>
-    <row r="44" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="58"/>
-      <c r="B44" s="108"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="60"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="75"/>
-      <c r="G44" s="87"/>
-      <c r="H44" s="84">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I44" s="84"/>
-      <c r="J44" s="84"/>
-      <c r="K44" s="164"/>
-      <c r="L44" s="165"/>
-    </row>
-    <row r="45" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="58"/>
-      <c r="B45" s="108"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="75"/>
-      <c r="G45" s="87"/>
-      <c r="H45" s="84">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I45" s="84"/>
-      <c r="J45" s="84"/>
-      <c r="K45" s="164"/>
-      <c r="L45" s="165"/>
-    </row>
-    <row r="46" spans="1:12" ht="21.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A46" s="62"/>
-      <c r="B46" s="68"/>
-      <c r="C46" s="63"/>
-      <c r="D46" s="64"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="78"/>
-      <c r="G46" s="91"/>
-      <c r="H46" s="84">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I46" s="122"/>
-      <c r="J46" s="122"/>
-      <c r="K46" s="148"/>
-      <c r="L46" s="149"/>
-    </row>
-    <row r="47" spans="1:12" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="65"/>
-      <c r="B47" s="66"/>
-      <c r="C47" s="150" t="s">
-        <v>5</v>
-      </c>
-      <c r="D47" s="150"/>
-      <c r="E47" s="102"/>
-      <c r="F47" s="192">
-        <f>SUM(H8:H46)</f>
-        <v>0</v>
-      </c>
-      <c r="G47" s="193"/>
-      <c r="H47" s="193"/>
-      <c r="I47" s="114"/>
-      <c r="J47" s="114"/>
-      <c r="K47" s="92"/>
-      <c r="L47" s="15"/>
-    </row>
-    <row r="48" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="118"/>
-      <c r="B48" s="119"/>
-      <c r="C48" s="188" t="s">
-        <v>25</v>
-      </c>
-      <c r="D48" s="189"/>
-      <c r="E48" s="196"/>
+      <c r="D48" s="185"/>
+      <c r="E48" s="121"/>
       <c r="F48" s="190"/>
       <c r="G48" s="191"/>
       <c r="H48" s="191"/>
-      <c r="I48" s="125"/>
-      <c r="J48" s="123"/>
-      <c r="K48" s="120"/>
-      <c r="L48" s="121"/>
+      <c r="I48" s="191"/>
+      <c r="J48" s="192"/>
+      <c r="K48" s="119"/>
+      <c r="L48" s="120"/>
     </row>
     <row r="49" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A49" s="67"/>
-      <c r="B49" s="68"/>
-      <c r="C49" s="151" t="s">
+      <c r="A49" s="66"/>
+      <c r="B49" s="67"/>
+      <c r="C49" s="200"/>
+      <c r="D49" s="200"/>
+      <c r="E49" s="68"/>
+      <c r="F49" s="193"/>
+      <c r="G49" s="194"/>
+      <c r="H49" s="194"/>
+      <c r="I49" s="195"/>
+      <c r="J49" s="196"/>
+      <c r="K49" s="92"/>
+      <c r="L49" s="16"/>
+    </row>
+    <row r="50" spans="1:12" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A50" s="69"/>
+      <c r="B50" s="70"/>
+      <c r="C50" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="D49" s="151"/>
-      <c r="E49" s="69">
-        <v>0.08</v>
-      </c>
-      <c r="F49" s="176">
-        <f>F47*$E$49</f>
-        <v>0</v>
-      </c>
-      <c r="G49" s="177"/>
-      <c r="H49" s="177"/>
-      <c r="I49" s="115"/>
-      <c r="J49" s="115"/>
-      <c r="K49" s="93"/>
-      <c r="L49" s="16"/>
-    </row>
-    <row r="50" spans="1:12" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A50" s="70"/>
-      <c r="B50" s="71"/>
-      <c r="C50" s="133" t="s">
-        <v>7</v>
-      </c>
-      <c r="D50" s="133"/>
-      <c r="E50" s="103"/>
-      <c r="F50" s="178">
+      <c r="D50" s="134"/>
+      <c r="E50" s="102"/>
+      <c r="F50" s="197">
         <f>F47+F49</f>
         <v>0</v>
       </c>
-      <c r="G50" s="179"/>
-      <c r="H50" s="179"/>
-      <c r="I50" s="124"/>
-      <c r="J50" s="124"/>
-      <c r="K50" s="94"/>
+      <c r="G50" s="198"/>
+      <c r="H50" s="198"/>
+      <c r="I50" s="172"/>
+      <c r="J50" s="173"/>
+      <c r="K50" s="93"/>
       <c r="L50" s="18"/>
     </row>
     <row r="51" spans="1:12" s="21" customFormat="1" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A51" s="186" t="s">
-        <v>17</v>
-      </c>
-      <c r="B51" s="186"/>
-      <c r="C51" s="186"/>
+      <c r="A51" s="182" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" s="182"/>
+      <c r="C51" s="182"/>
       <c r="D51" s="19"/>
       <c r="E51" s="19"/>
       <c r="F51" s="20"/>
@@ -3870,192 +3900,192 @@
       <c r="H51" s="20"/>
       <c r="I51" s="20"/>
       <c r="J51" s="20"/>
-      <c r="K51" s="187"/>
-      <c r="L51" s="187"/>
+      <c r="K51" s="183"/>
+      <c r="L51" s="183"/>
     </row>
     <row r="52" spans="1:12" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A52" s="169" t="s">
+      <c r="A52" s="159" t="s">
         <v>1</v>
       </c>
-      <c r="B52" s="170"/>
-      <c r="C52" s="171" t="s">
-        <v>14</v>
-      </c>
-      <c r="D52" s="172"/>
-      <c r="E52" s="54" t="s">
+      <c r="B52" s="160"/>
+      <c r="C52" s="161" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="162"/>
+      <c r="E52" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="F52" s="79" t="s">
+      <c r="F52" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="G52" s="85" t="s">
+      <c r="G52" s="84" t="s">
+        <v>18</v>
+      </c>
+      <c r="H52" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="H52" s="79" t="s">
-        <v>20</v>
-      </c>
-      <c r="I52" s="113" t="s">
-        <v>26</v>
-      </c>
-      <c r="J52" s="113" t="s">
-        <v>27</v>
-      </c>
-      <c r="K52" s="171" t="s">
+      <c r="I52" s="115" t="s">
+        <v>24</v>
+      </c>
+      <c r="J52" s="115" t="s">
+        <v>25</v>
+      </c>
+      <c r="K52" s="161" t="s">
         <v>4</v>
       </c>
-      <c r="L52" s="173"/>
+      <c r="L52" s="163"/>
     </row>
     <row r="53" spans="1:12" ht="21.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="22"/>
-      <c r="B53" s="23"/>
-      <c r="C53" s="24"/>
+      <c r="A53" s="112"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="23"/>
       <c r="D53" s="9"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="80"/>
-      <c r="G53" s="98"/>
-      <c r="H53" s="95">
+      <c r="E53" s="24"/>
+      <c r="F53" s="79"/>
+      <c r="G53" s="97"/>
+      <c r="H53" s="94">
         <f>F53+G53</f>
         <v>0</v>
       </c>
-      <c r="I53" s="95"/>
-      <c r="J53" s="95"/>
-      <c r="K53" s="184"/>
-      <c r="L53" s="185"/>
+      <c r="I53" s="125"/>
+      <c r="J53" s="94"/>
+      <c r="K53" s="168"/>
+      <c r="L53" s="169"/>
     </row>
     <row r="54" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="48"/>
+      <c r="A54" s="113"/>
       <c r="B54" s="11"/>
-      <c r="C54" s="26"/>
+      <c r="C54" s="25"/>
       <c r="D54" s="10"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="81"/>
-      <c r="G54" s="99"/>
-      <c r="H54" s="96">
+      <c r="E54" s="26"/>
+      <c r="F54" s="80"/>
+      <c r="G54" s="98"/>
+      <c r="H54" s="95">
         <f>F54+G54</f>
         <v>0</v>
       </c>
-      <c r="I54" s="96"/>
-      <c r="J54" s="96"/>
-      <c r="K54" s="182"/>
-      <c r="L54" s="183"/>
+      <c r="I54" s="126"/>
+      <c r="J54" s="95"/>
+      <c r="K54" s="166"/>
+      <c r="L54" s="167"/>
     </row>
     <row r="55" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="48"/>
+      <c r="A55" s="113"/>
       <c r="B55" s="11"/>
-      <c r="C55" s="26"/>
+      <c r="C55" s="25"/>
       <c r="D55" s="10"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="81"/>
-      <c r="G55" s="99"/>
-      <c r="H55" s="96">
+      <c r="E55" s="26"/>
+      <c r="F55" s="80"/>
+      <c r="G55" s="98"/>
+      <c r="H55" s="95">
         <f>F55+G55</f>
         <v>0</v>
       </c>
-      <c r="I55" s="96"/>
-      <c r="J55" s="96"/>
-      <c r="K55" s="182"/>
-      <c r="L55" s="183"/>
+      <c r="I55" s="126"/>
+      <c r="J55" s="95"/>
+      <c r="K55" s="166"/>
+      <c r="L55" s="167"/>
     </row>
     <row r="56" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="48"/>
-      <c r="B56" s="29"/>
-      <c r="C56" s="49"/>
+      <c r="A56" s="113"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="46"/>
       <c r="D56" s="10"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="81"/>
-      <c r="G56" s="99"/>
-      <c r="H56" s="96">
+      <c r="E56" s="26"/>
+      <c r="F56" s="80"/>
+      <c r="G56" s="98"/>
+      <c r="H56" s="95">
         <f t="shared" ref="H56:H57" si="2">F56+G56</f>
         <v>0</v>
       </c>
-      <c r="I56" s="96"/>
-      <c r="J56" s="96"/>
-      <c r="K56" s="134"/>
-      <c r="L56" s="135"/>
+      <c r="I56" s="126"/>
+      <c r="J56" s="95"/>
+      <c r="K56" s="135"/>
+      <c r="L56" s="136"/>
     </row>
     <row r="57" spans="1:12" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A57" s="36"/>
-      <c r="B57" s="37"/>
-      <c r="C57" s="38"/>
-      <c r="D57" s="39"/>
-      <c r="E57" s="40"/>
-      <c r="F57" s="82"/>
-      <c r="G57" s="100"/>
-      <c r="H57" s="97">
+      <c r="A57" s="114"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="81"/>
+      <c r="G57" s="99"/>
+      <c r="H57" s="96">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I57" s="97"/>
-      <c r="J57" s="97"/>
-      <c r="K57" s="136"/>
-      <c r="L57" s="137"/>
+      <c r="I57" s="127"/>
+      <c r="J57" s="96"/>
+      <c r="K57" s="137"/>
+      <c r="L57" s="138"/>
     </row>
     <row r="58" spans="1:12" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A58" s="70"/>
-      <c r="B58" s="71"/>
-      <c r="C58" s="133" t="s">
+      <c r="A58" s="69"/>
+      <c r="B58" s="70"/>
+      <c r="C58" s="134" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="134"/>
+      <c r="E58" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="D58" s="133"/>
-      <c r="E58" s="72" t="s">
-        <v>9</v>
-      </c>
-      <c r="F58" s="180">
+      <c r="F58" s="170">
         <f>SUM(H53:H57)</f>
         <v>0</v>
       </c>
-      <c r="G58" s="181"/>
-      <c r="H58" s="181"/>
-      <c r="I58" s="116"/>
-      <c r="J58" s="116"/>
-      <c r="K58" s="101"/>
-      <c r="L58" s="28"/>
+      <c r="G58" s="171"/>
+      <c r="H58" s="171"/>
+      <c r="I58" s="172"/>
+      <c r="J58" s="173"/>
+      <c r="K58" s="100"/>
+      <c r="L58" s="27"/>
     </row>
     <row r="59" spans="1:12" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A59" s="30"/>
+      <c r="A59" s="29"/>
       <c r="B59" s="17"/>
       <c r="C59" s="17"/>
-      <c r="D59" s="30"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="31"/>
-      <c r="G59" s="31"/>
-      <c r="H59" s="31"/>
-      <c r="I59" s="31"/>
-      <c r="J59" s="31"/>
-      <c r="K59" s="31"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="30"/>
+      <c r="I59" s="30"/>
+      <c r="J59" s="30"/>
+      <c r="K59" s="30"/>
       <c r="L59" s="17"/>
     </row>
     <row r="60" spans="1:12" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A60" s="32"/>
-      <c r="B60" s="73" t="s">
+      <c r="A60" s="31"/>
+      <c r="B60" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60" s="143" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" s="143"/>
+      <c r="E60" s="103"/>
+      <c r="F60" s="148">
+        <f>F50+F58</f>
+        <v>0</v>
+      </c>
+      <c r="G60" s="148"/>
+      <c r="H60" s="148"/>
+      <c r="I60" s="149"/>
+      <c r="J60" s="149"/>
+      <c r="K60" s="139" t="s">
+        <v>9</v>
+      </c>
+      <c r="L60" s="140"/>
+    </row>
+    <row r="61" spans="1:12" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A61" s="141"/>
+      <c r="B61" s="141"/>
+      <c r="C61" s="141"/>
+      <c r="D61" s="141"/>
+      <c r="E61" s="142"/>
+      <c r="F61" s="104" t="s">
         <v>23</v>
-      </c>
-      <c r="C60" s="143" t="s">
-        <v>21</v>
-      </c>
-      <c r="D60" s="143"/>
-      <c r="E60" s="104"/>
-      <c r="F60" s="142">
-        <f>F50+F58</f>
-        <v>0</v>
-      </c>
-      <c r="G60" s="142"/>
-      <c r="H60" s="142"/>
-      <c r="I60" s="117"/>
-      <c r="J60" s="117"/>
-      <c r="K60" s="138" t="s">
-        <v>10</v>
-      </c>
-      <c r="L60" s="139"/>
-    </row>
-    <row r="61" spans="1:12" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="140"/>
-      <c r="B61" s="140"/>
-      <c r="C61" s="140"/>
-      <c r="D61" s="140"/>
-      <c r="E61" s="141"/>
-      <c r="F61" s="105" t="s">
-        <v>24</v>
       </c>
       <c r="G61" s="144">
         <f>B3</f>
@@ -4068,13 +4098,13 @@
       <c r="L61" s="145"/>
     </row>
     <row r="62" spans="1:12" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A62" s="131"/>
-      <c r="B62" s="131"/>
-      <c r="C62" s="131"/>
-      <c r="D62" s="131"/>
-      <c r="E62" s="132"/>
-      <c r="F62" s="106" t="s">
-        <v>11</v>
+      <c r="A62" s="132"/>
+      <c r="B62" s="132"/>
+      <c r="C62" s="132"/>
+      <c r="D62" s="132"/>
+      <c r="E62" s="133"/>
+      <c r="F62" s="105" t="s">
+        <v>10</v>
       </c>
       <c r="G62" s="146"/>
       <c r="H62" s="146"/>
@@ -4084,53 +4114,58 @@
       <c r="L62" s="147"/>
     </row>
     <row r="63" spans="1:12" ht="20.25" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A63" s="33"/>
-      <c r="B63" s="34"/>
-      <c r="C63" s="34"/>
-      <c r="D63" s="34"/>
-      <c r="E63" s="34"/>
-      <c r="F63" s="34"/>
-      <c r="G63" s="34"/>
-      <c r="H63" s="34"/>
-      <c r="I63" s="34"/>
-      <c r="J63" s="34"/>
-      <c r="K63" s="34"/>
-      <c r="L63" s="34"/>
+      <c r="A63" s="32"/>
+      <c r="B63" s="33"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="33"/>
+      <c r="I63" s="33"/>
+      <c r="J63" s="33"/>
+      <c r="K63" s="33"/>
+      <c r="L63" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K26:L26"/>
     <mergeCell ref="K27:L27"/>
     <mergeCell ref="K28:L28"/>
     <mergeCell ref="K29:L29"/>
     <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="K52:L52"/>
     <mergeCell ref="C48:D48"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="F47:J47"/>
+    <mergeCell ref="F48:J48"/>
+    <mergeCell ref="F49:J49"/>
+    <mergeCell ref="F50:J50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C49:D49"/>
     <mergeCell ref="K35:L35"/>
     <mergeCell ref="K41:L41"/>
     <mergeCell ref="K42:L42"/>
     <mergeCell ref="K43:L43"/>
     <mergeCell ref="K45:L45"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="F58:H58"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K39:L39"/>
     <mergeCell ref="K40:L40"/>
     <mergeCell ref="K44:L44"/>
     <mergeCell ref="K1:L1"/>
@@ -4141,15 +4176,6 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C49:D49"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="K10:L10"/>
@@ -4169,15 +4195,19 @@
     <mergeCell ref="K57:L57"/>
     <mergeCell ref="K60:L60"/>
     <mergeCell ref="A61:E61"/>
-    <mergeCell ref="F60:H60"/>
     <mergeCell ref="C60:D60"/>
     <mergeCell ref="G61:L61"/>
     <mergeCell ref="G62:L62"/>
+    <mergeCell ref="F60:J60"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="F58:J58"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="61" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="62" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/EXTB/Format/付帯設備利用明細書_シアター.xlsx
+++ b/EXTB/Format/付帯設備利用明細書_シアター.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\奥田\source\repos\EXT\EXTB\Format\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s0707\Desktop\EXT_K0905\EXT_K0905\format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3FC70C-6621-4885-8995-71CF2856E0B3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="0" windowWidth="23040" windowHeight="12264" tabRatio="826" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5160" yWindow="0" windowWidth="23040" windowHeight="12270" tabRatio="826"/>
   </bookViews>
   <sheets>
     <sheet name="シアター" sheetId="50" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">シアター!$A$1:$L$65</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">シアター!$A$1:$K$65</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>様</t>
     <rPh sb="0" eb="1">
@@ -190,23 +189,33 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>税率</t>
-    <rPh sb="0" eb="2">
-      <t>ゼイリツ</t>
+    <t>消費税</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒゼイ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>税額</t>
-    <rPh sb="0" eb="2">
-      <t>ゼイガク</t>
+    <t>金　　額</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>税  額</t>
+    <rPh sb="0" eb="1">
+      <t>ゼイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ガク</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>消費税</t>
-    <rPh sb="0" eb="3">
-      <t>ショウヒゼイ</t>
+    <t>税 率</t>
+    <rPh sb="0" eb="1">
+      <t>ゼイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>リツ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -214,14 +223,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="44" x14ac:knownFonts="1">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -360,22 +369,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="3" tint="-0.249977111117893"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="8"/>
-      <color theme="3" tint="-0.249977111117893"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="9"/>
       <color theme="3" tint="-0.249977111117893"/>
       <name val="メイリオ"/>
       <family val="3"/>
@@ -636,19 +629,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color rgb="FF0070C0"/>
       </left>
@@ -703,19 +683,6 @@
         <color rgb="FF0070C0"/>
       </left>
       <right style="thin">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top style="double">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
         <color rgb="FF0070C0"/>
       </right>
       <top style="double">
@@ -830,19 +797,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color rgb="FF0070C0"/>
       </left>
@@ -869,19 +823,6 @@
     <border>
       <left/>
       <right style="thin">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
         <color rgb="FF0070C0"/>
       </right>
       <top style="thin">
@@ -936,17 +877,6 @@
     </border>
     <border>
       <left/>
-      <right style="thick">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thick">
         <color rgb="FF0070C0"/>
@@ -995,19 +925,6 @@
     </border>
     <border>
       <left/>
-      <right style="thick">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thick">
         <color rgb="FF0070C0"/>
@@ -1106,17 +1023,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="hair">
         <color rgb="FF0070C0"/>
       </left>
@@ -1206,6 +1112,105 @@
       <top style="double">
         <color rgb="FF0070C0"/>
       </top>
+      <bottom style="thick">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top style="double">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top style="double">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top/>
       <bottom style="thick">
         <color rgb="FF0070C0"/>
       </bottom>
@@ -1235,7 +1240,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="201">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1254,576 +1259,530 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="14" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="14" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="14" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="14" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="21" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="22" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="22" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="8" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="8" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="14" fillId="0" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="14" fillId="0" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="2" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="33" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="33" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="33" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="33" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="35" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="33" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="38" fontId="9" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="35" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="35" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="35" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="35" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="37" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="35" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="38" fontId="9" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="35" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="9" fillId="2" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="35" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="8" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="20" fillId="0" borderId="49" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="16" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="20" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="20" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="20" fillId="0" borderId="48" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="23" fillId="0" borderId="48" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="37" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="16" fillId="2" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="16" fillId="0" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="20" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="21" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="37" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="18" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="38" fontId="17" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="16" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="20" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="20" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="20" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="16" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="16" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="33" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="33" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="24" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="25" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="21" fillId="0" borderId="49" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="38" fontId="26" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="26" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="27" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="27" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="38" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="36" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="16" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="16" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="16" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="16" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="6" fontId="7" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="7" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="7" fillId="0" borderId="47" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="7" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="17" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="17" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="18" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="38" fontId="18" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="38" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="16" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="38" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="21" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="6" fontId="23" fillId="0" borderId="47" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="21" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="6" fontId="23" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
-    <cellStyle name="桁区切り 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="桁区切り 2" xfId="3"/>
     <cellStyle name="通貨" xfId="2" builtinId="7"/>
-    <cellStyle name="通貨 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="通貨 2" xfId="4"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="標準 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="標準 2" xfId="5"/>
+    <cellStyle name="標準 3" xfId="6"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1868,8 +1827,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="22860" y="14161770"/>
-          <a:ext cx="2217420" cy="1245870"/>
+          <a:off x="19050" y="14226540"/>
+          <a:ext cx="2219325" cy="1232535"/>
           <a:chOff x="38100" y="13115925"/>
           <a:chExt cx="2171700" cy="1076325"/>
         </a:xfrm>
@@ -2171,31 +2130,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>477983</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>301918</xdr:rowOff>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>14263</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>588645</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>567690</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="テキスト ボックス 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="21" name="テキスト ボックス 20"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7777943" y="1551598"/>
-          <a:ext cx="2251882" cy="570572"/>
+          <a:off x="7524750" y="1566838"/>
+          <a:ext cx="3217193" cy="566762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2246,31 +2199,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>513016</xdr:colOff>
+      <xdr:colOff>336022</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>225399</xdr:rowOff>
+      <xdr:rowOff>234924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>588646</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>80249</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>529246</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="テキスト ボックス 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="22" name="テキスト ボックス 21"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7812976" y="1779879"/>
-          <a:ext cx="1431990" cy="303847"/>
+          <a:off x="7632172" y="1787499"/>
+          <a:ext cx="1877827" cy="294322"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2323,31 +2270,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>634243</xdr:colOff>
+      <xdr:colOff>325806</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>41084</xdr:rowOff>
+      <xdr:rowOff>62039</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>73267</xdr:rowOff>
+      <xdr:rowOff>88507</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="テキスト ボックス 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7934203" y="1290764"/>
-          <a:ext cx="3274817" cy="336983"/>
+          <a:off x="7621956" y="1309814"/>
+          <a:ext cx="3558330" cy="331268"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2493,31 +2434,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>554337</xdr:colOff>
+      <xdr:colOff>228754</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>224790</xdr:rowOff>
+      <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>630555</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>270465</xdr:rowOff>
+      <xdr:rowOff>293325</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="テキスト ボックス 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="24" name="テキスト ボックス 23"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7854297" y="864870"/>
-          <a:ext cx="2217438" cy="350475"/>
+          <a:off x="7524904" y="876300"/>
+          <a:ext cx="3531243" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2598,31 +2533,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>554337</xdr:colOff>
+      <xdr:colOff>228754</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>118110</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>630555</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>186645</xdr:rowOff>
+      <xdr:rowOff>198075</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="テキスト ボックス 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="25" name="テキスト ボックス 24"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7854297" y="1062990"/>
-          <a:ext cx="2217438" cy="373335"/>
+          <a:off x="7524904" y="1085850"/>
+          <a:ext cx="3531243" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2795,23 +2724,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2847,23 +2759,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3039,15 +2934,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L63"/>
+  <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A27" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M54" sqref="M54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
@@ -3060,1095 +2955,1026 @@
     <col min="6" max="8" width="11.5" style="4" customWidth="1"/>
     <col min="9" max="9" width="6.25" style="4" customWidth="1"/>
     <col min="10" max="10" width="10.25" style="4" customWidth="1"/>
-    <col min="11" max="12" width="11.625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="9" style="4" customWidth="1"/>
-    <col min="14" max="14" width="8.875" style="4" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="4"/>
+    <col min="11" max="11" width="22.625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="9" style="4" customWidth="1"/>
+    <col min="13" max="13" width="8.875" style="4" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
-      <c r="K1" s="156"/>
-      <c r="L1" s="156"/>
-    </row>
-    <row r="2" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="157" t="s">
+      <c r="K1" s="117"/>
+    </row>
+    <row r="2" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="159" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="157"/>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
-      <c r="I2" s="157"/>
-      <c r="J2" s="157"/>
-      <c r="K2" s="157"/>
-      <c r="L2" s="157"/>
-    </row>
-    <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="34"/>
+      <c r="B2" s="159"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="159"/>
+      <c r="G2" s="159"/>
+      <c r="H2" s="159"/>
+      <c r="I2" s="159"/>
+      <c r="J2" s="159"/>
+      <c r="K2" s="159"/>
+    </row>
+    <row r="3" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="30"/>
       <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="47"/>
-    </row>
-    <row r="4" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="164"/>
-      <c r="C4" s="164"/>
-      <c r="G4" s="47"/>
-    </row>
-    <row r="5" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="158"/>
-      <c r="C5" s="158"/>
-      <c r="G5" s="48"/>
-    </row>
-    <row r="6" spans="1:12" s="7" customFormat="1" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="165" t="s">
+      <c r="G3" s="43"/>
+      <c r="K3" s="118"/>
+    </row>
+    <row r="4" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="165"/>
+      <c r="C4" s="165"/>
+      <c r="G4" s="43"/>
+      <c r="K4" s="118"/>
+    </row>
+    <row r="5" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B5" s="160"/>
+      <c r="C5" s="160"/>
+      <c r="G5" s="44"/>
+      <c r="K5" s="118"/>
+    </row>
+    <row r="6" spans="1:11" s="7" customFormat="1" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="166" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="165"/>
+      <c r="B6" s="166"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="50"/>
+      <c r="G6" s="45"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="49"/>
-    </row>
-    <row r="7" spans="1:12" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="159" t="s">
+      <c r="K6" s="119"/>
+    </row>
+    <row r="7" spans="1:11" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="160"/>
-      <c r="C7" s="161" t="s">
+      <c r="B7" s="162"/>
+      <c r="C7" s="163" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="162"/>
-      <c r="E7" s="51" t="s">
+      <c r="D7" s="164"/>
+      <c r="E7" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="78" t="s">
+      <c r="F7" s="73" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="79" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="106" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="106" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="124" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="21.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="48"/>
+      <c r="B8" s="97"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="68">
+        <f>F8+G8</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="111"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="125"/>
+    </row>
+    <row r="9" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="51"/>
+      <c r="B9" s="98"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="78">
+        <f>F9+G9</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="112"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="126"/>
+    </row>
+    <row r="10" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="51"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="78">
+        <f t="shared" ref="H10:H46" si="0">F10+G10</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="112"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="126"/>
+    </row>
+    <row r="11" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="51"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="78">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="112"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="126"/>
+    </row>
+    <row r="12" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="51"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="78">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="112"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="126"/>
+    </row>
+    <row r="13" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="51"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="78">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="112"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="126"/>
+    </row>
+    <row r="14" spans="1:11" s="36" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="51"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="78">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="112"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="127"/>
+    </row>
+    <row r="15" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="51"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="78">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="112"/>
+      <c r="J15" s="78"/>
+      <c r="K15" s="126"/>
+    </row>
+    <row r="16" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="51"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="78">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="112"/>
+      <c r="J16" s="78"/>
+      <c r="K16" s="126"/>
+    </row>
+    <row r="17" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="51"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="78">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="112"/>
+      <c r="J17" s="78"/>
+      <c r="K17" s="126"/>
+    </row>
+    <row r="18" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="51"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="78">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="112"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="126"/>
+    </row>
+    <row r="19" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="51"/>
+      <c r="B19" s="100"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="78">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="112"/>
+      <c r="J19" s="78"/>
+      <c r="K19" s="128"/>
+    </row>
+    <row r="20" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="51"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="78">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="112"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="129"/>
+    </row>
+    <row r="21" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="51"/>
+      <c r="B21" s="98"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="78">
+        <f t="shared" ref="H21:H34" si="1">F21+G21</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="112"/>
+      <c r="J21" s="78"/>
+      <c r="K21" s="129"/>
+    </row>
+    <row r="22" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="51"/>
+      <c r="B22" s="98"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="112"/>
+      <c r="J22" s="78"/>
+      <c r="K22" s="129"/>
+    </row>
+    <row r="23" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="51"/>
+      <c r="B23" s="98"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="112"/>
+      <c r="J23" s="78"/>
+      <c r="K23" s="129"/>
+    </row>
+    <row r="24" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="51"/>
+      <c r="B24" s="98"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="112"/>
+      <c r="J24" s="78"/>
+      <c r="K24" s="129"/>
+    </row>
+    <row r="25" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="51"/>
+      <c r="B25" s="98"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="112"/>
+      <c r="J25" s="78"/>
+      <c r="K25" s="129"/>
+    </row>
+    <row r="26" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="51"/>
+      <c r="B26" s="98"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="112"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="129"/>
+    </row>
+    <row r="27" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="51"/>
+      <c r="B27" s="98"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="81"/>
+      <c r="H27" s="78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="112"/>
+      <c r="J27" s="78"/>
+      <c r="K27" s="129"/>
+    </row>
+    <row r="28" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="51"/>
+      <c r="B28" s="98"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="81"/>
+      <c r="H28" s="78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="112"/>
+      <c r="J28" s="78"/>
+      <c r="K28" s="129"/>
+    </row>
+    <row r="29" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="51"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="112"/>
+      <c r="J29" s="78"/>
+      <c r="K29" s="129"/>
+    </row>
+    <row r="30" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="51"/>
+      <c r="B30" s="98"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="81"/>
+      <c r="H30" s="78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="112"/>
+      <c r="J30" s="78"/>
+      <c r="K30" s="129"/>
+    </row>
+    <row r="31" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="51"/>
+      <c r="B31" s="98"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="81"/>
+      <c r="H31" s="78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="112"/>
+      <c r="J31" s="78"/>
+      <c r="K31" s="129"/>
+    </row>
+    <row r="32" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="51"/>
+      <c r="B32" s="98"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="81"/>
+      <c r="H32" s="78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="112"/>
+      <c r="J32" s="78"/>
+      <c r="K32" s="129"/>
+    </row>
+    <row r="33" spans="1:11" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="51"/>
+      <c r="B33" s="98"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="81"/>
+      <c r="H33" s="78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="112"/>
+      <c r="J33" s="78"/>
+      <c r="K33" s="129"/>
+    </row>
+    <row r="34" spans="1:11" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="51"/>
+      <c r="B34" s="98"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="81"/>
+      <c r="H34" s="78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="112"/>
+      <c r="J34" s="78"/>
+      <c r="K34" s="129"/>
+    </row>
+    <row r="35" spans="1:11" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="51"/>
+      <c r="B35" s="101"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="69"/>
+      <c r="G35" s="81"/>
+      <c r="H35" s="78">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="112"/>
+      <c r="J35" s="78"/>
+      <c r="K35" s="126"/>
+    </row>
+    <row r="36" spans="1:11" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="51"/>
+      <c r="B36" s="101"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="81"/>
+      <c r="H36" s="78">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="112"/>
+      <c r="J36" s="78"/>
+      <c r="K36" s="126"/>
+    </row>
+    <row r="37" spans="1:11" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="51"/>
+      <c r="B37" s="101"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="69"/>
+      <c r="G37" s="81"/>
+      <c r="H37" s="78">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="112"/>
+      <c r="J37" s="78"/>
+      <c r="K37" s="126"/>
+    </row>
+    <row r="38" spans="1:11" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="51"/>
+      <c r="B38" s="102"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="69"/>
+      <c r="G38" s="81"/>
+      <c r="H38" s="78">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="112"/>
+      <c r="J38" s="78"/>
+      <c r="K38" s="126"/>
+    </row>
+    <row r="39" spans="1:11" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="51"/>
+      <c r="B39" s="98"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="69"/>
+      <c r="G39" s="81"/>
+      <c r="H39" s="78">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="112"/>
+      <c r="J39" s="78"/>
+      <c r="K39" s="130"/>
+    </row>
+    <row r="40" spans="1:11" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="51"/>
+      <c r="B40" s="98"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="69"/>
+      <c r="G40" s="81"/>
+      <c r="H40" s="78">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="112"/>
+      <c r="J40" s="78"/>
+      <c r="K40" s="131"/>
+    </row>
+    <row r="41" spans="1:11" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="51"/>
+      <c r="B41" s="98"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="69"/>
+      <c r="G41" s="81"/>
+      <c r="H41" s="78">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="112"/>
+      <c r="J41" s="78"/>
+      <c r="K41" s="131"/>
+    </row>
+    <row r="42" spans="1:11" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="51"/>
+      <c r="B42" s="98"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="69"/>
+      <c r="G42" s="81"/>
+      <c r="H42" s="78">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="112"/>
+      <c r="J42" s="78"/>
+      <c r="K42" s="131"/>
+    </row>
+    <row r="43" spans="1:11" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="51"/>
+      <c r="B43" s="98"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="69"/>
+      <c r="G43" s="81"/>
+      <c r="H43" s="78">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="112"/>
+      <c r="J43" s="78"/>
+      <c r="K43" s="131"/>
+    </row>
+    <row r="44" spans="1:11" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="51"/>
+      <c r="B44" s="98"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="69"/>
+      <c r="G44" s="81"/>
+      <c r="H44" s="78">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="112"/>
+      <c r="J44" s="78"/>
+      <c r="K44" s="132"/>
+    </row>
+    <row r="45" spans="1:11" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="51"/>
+      <c r="B45" s="98"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="69"/>
+      <c r="G45" s="81"/>
+      <c r="H45" s="78">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="112"/>
+      <c r="J45" s="78"/>
+      <c r="K45" s="132"/>
+    </row>
+    <row r="46" spans="1:11" ht="21.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A46" s="56"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="57"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="72"/>
+      <c r="G46" s="85"/>
+      <c r="H46" s="78">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I46" s="113"/>
+      <c r="J46" s="107"/>
+      <c r="K46" s="133"/>
+    </row>
+    <row r="47" spans="1:11" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="59"/>
+      <c r="B47" s="60"/>
+      <c r="C47" s="182" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="182"/>
+      <c r="E47" s="92"/>
+      <c r="F47" s="169">
+        <f>SUM(H8:H46)</f>
+        <v>0</v>
+      </c>
+      <c r="G47" s="170"/>
+      <c r="H47" s="170"/>
+      <c r="I47" s="171"/>
+      <c r="J47" s="172"/>
+      <c r="K47" s="134"/>
+    </row>
+    <row r="48" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="108"/>
+      <c r="B48" s="109"/>
+      <c r="C48" s="167" t="s">
+        <v>24</v>
+      </c>
+      <c r="D48" s="168"/>
+      <c r="E48" s="110"/>
+      <c r="F48" s="173"/>
+      <c r="G48" s="174"/>
+      <c r="H48" s="174"/>
+      <c r="I48" s="174"/>
+      <c r="J48" s="175"/>
+      <c r="K48" s="135"/>
+    </row>
+    <row r="49" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A49" s="61"/>
+      <c r="B49" s="62"/>
+      <c r="C49" s="183"/>
+      <c r="D49" s="183"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="176"/>
+      <c r="G49" s="177"/>
+      <c r="H49" s="177"/>
+      <c r="I49" s="178"/>
+      <c r="J49" s="179"/>
+      <c r="K49" s="136"/>
+    </row>
+    <row r="50" spans="1:11" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A50" s="64"/>
+      <c r="B50" s="65"/>
+      <c r="C50" s="145" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="145"/>
+      <c r="E50" s="93"/>
+      <c r="F50" s="180">
+        <f>F47+F49</f>
+        <v>0</v>
+      </c>
+      <c r="G50" s="181"/>
+      <c r="H50" s="181"/>
+      <c r="I50" s="157"/>
+      <c r="J50" s="158"/>
+      <c r="K50" s="123"/>
+    </row>
+    <row r="51" spans="1:11" s="18" customFormat="1" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A51" s="184" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" s="184"/>
+      <c r="C51" s="184"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="122"/>
+    </row>
+    <row r="52" spans="1:11" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A52" s="161" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" s="162"/>
+      <c r="C52" s="163" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="164"/>
+      <c r="E52" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="F52" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="84" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="115" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="115" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="161" t="s">
+      <c r="G52" s="79" t="s">
+        <v>18</v>
+      </c>
+      <c r="H52" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="I52" s="106" t="s">
+        <v>27</v>
+      </c>
+      <c r="J52" s="106" t="s">
+        <v>26</v>
+      </c>
+      <c r="K52" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="L7" s="163"/>
-    </row>
-    <row r="8" spans="1:12" ht="21.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="53"/>
-      <c r="B8" s="106"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="73">
-        <f>F8+G8</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="122"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="154"/>
-      <c r="L8" s="155"/>
-    </row>
-    <row r="9" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="56"/>
-      <c r="B9" s="107"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="83">
-        <f>F9+G9</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="123"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="150"/>
-      <c r="L9" s="151"/>
-    </row>
-    <row r="10" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="56"/>
-      <c r="B10" s="107"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="83">
-        <f t="shared" ref="H10:H46" si="0">F10+G10</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="123"/>
-      <c r="J10" s="83"/>
-      <c r="K10" s="150"/>
-      <c r="L10" s="151"/>
-    </row>
-    <row r="11" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="56"/>
-      <c r="B11" s="108"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="83">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="123"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="150"/>
-      <c r="L11" s="151"/>
-    </row>
-    <row r="12" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="56"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="83">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="123"/>
-      <c r="J12" s="83"/>
-      <c r="K12" s="150"/>
-      <c r="L12" s="151"/>
-    </row>
-    <row r="13" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="56"/>
-      <c r="B13" s="108"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="83">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="123"/>
-      <c r="J13" s="83"/>
-      <c r="K13" s="150"/>
-      <c r="L13" s="151"/>
-    </row>
-    <row r="14" spans="1:12" s="40" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="56"/>
-      <c r="B14" s="108"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="83">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="123"/>
-      <c r="J14" s="83"/>
-      <c r="K14" s="152"/>
-      <c r="L14" s="153"/>
-    </row>
-    <row r="15" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="56"/>
-      <c r="B15" s="108"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="83">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="123"/>
-      <c r="J15" s="83"/>
-      <c r="K15" s="150"/>
-      <c r="L15" s="151"/>
-    </row>
-    <row r="16" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="56"/>
-      <c r="B16" s="108"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="83">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="123"/>
-      <c r="J16" s="83"/>
-      <c r="K16" s="150"/>
-      <c r="L16" s="151"/>
-    </row>
-    <row r="17" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="56"/>
-      <c r="B17" s="108"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="83">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="123"/>
-      <c r="J17" s="83"/>
-      <c r="K17" s="150"/>
-      <c r="L17" s="151"/>
-    </row>
-    <row r="18" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="56"/>
-      <c r="B18" s="108"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="83">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="123"/>
-      <c r="J18" s="83"/>
-      <c r="K18" s="150"/>
-      <c r="L18" s="151"/>
-    </row>
-    <row r="19" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="56"/>
-      <c r="B19" s="109"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="83">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="123"/>
-      <c r="J19" s="83"/>
-      <c r="K19" s="128"/>
-      <c r="L19" s="129"/>
-    </row>
-    <row r="20" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="56"/>
-      <c r="B20" s="107"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="83">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="123"/>
-      <c r="J20" s="83"/>
-      <c r="K20" s="130"/>
-      <c r="L20" s="131"/>
-    </row>
-    <row r="21" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="56"/>
-      <c r="B21" s="107"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="83">
-        <f t="shared" ref="H21:H34" si="1">F21+G21</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="123"/>
-      <c r="J21" s="83"/>
-      <c r="K21" s="130"/>
-      <c r="L21" s="131"/>
-    </row>
-    <row r="22" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="56"/>
-      <c r="B22" s="107"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="83">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="123"/>
-      <c r="J22" s="83"/>
-      <c r="K22" s="130"/>
-      <c r="L22" s="131"/>
-    </row>
-    <row r="23" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="56"/>
-      <c r="B23" s="107"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="83">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="123"/>
-      <c r="J23" s="83"/>
-      <c r="K23" s="130"/>
-      <c r="L23" s="131"/>
-    </row>
-    <row r="24" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="56"/>
-      <c r="B24" s="107"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="83">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="123"/>
-      <c r="J24" s="83"/>
-      <c r="K24" s="130"/>
-      <c r="L24" s="131"/>
-    </row>
-    <row r="25" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="56"/>
-      <c r="B25" s="107"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="83">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="123"/>
-      <c r="J25" s="83"/>
-      <c r="K25" s="130"/>
-      <c r="L25" s="131"/>
-    </row>
-    <row r="26" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="56"/>
-      <c r="B26" s="107"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="83">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="123"/>
-      <c r="J26" s="83"/>
-      <c r="K26" s="130"/>
-      <c r="L26" s="131"/>
-    </row>
-    <row r="27" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="56"/>
-      <c r="B27" s="107"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="83">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="123"/>
-      <c r="J27" s="83"/>
-      <c r="K27" s="130"/>
-      <c r="L27" s="131"/>
-    </row>
-    <row r="28" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="56"/>
-      <c r="B28" s="107"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="86"/>
-      <c r="H28" s="83">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="123"/>
-      <c r="J28" s="83"/>
-      <c r="K28" s="130"/>
-      <c r="L28" s="131"/>
-    </row>
-    <row r="29" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="56"/>
-      <c r="B29" s="107"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="83">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="123"/>
-      <c r="J29" s="83"/>
-      <c r="K29" s="130"/>
-      <c r="L29" s="131"/>
-    </row>
-    <row r="30" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="56"/>
-      <c r="B30" s="107"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="86"/>
-      <c r="H30" s="83">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I30" s="123"/>
-      <c r="J30" s="83"/>
-      <c r="K30" s="130"/>
-      <c r="L30" s="131"/>
-    </row>
-    <row r="31" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="56"/>
-      <c r="B31" s="107"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="74"/>
-      <c r="G31" s="86"/>
-      <c r="H31" s="83">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="123"/>
-      <c r="J31" s="83"/>
-      <c r="K31" s="130"/>
-      <c r="L31" s="131"/>
-    </row>
-    <row r="32" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="56"/>
-      <c r="B32" s="107"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="74"/>
-      <c r="G32" s="86"/>
-      <c r="H32" s="83">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="123"/>
-      <c r="J32" s="83"/>
-      <c r="K32" s="130"/>
-      <c r="L32" s="131"/>
-    </row>
-    <row r="33" spans="1:12" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="56"/>
-      <c r="B33" s="107"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="74"/>
-      <c r="G33" s="86"/>
-      <c r="H33" s="83">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="123"/>
-      <c r="J33" s="83"/>
-      <c r="K33" s="130"/>
-      <c r="L33" s="131"/>
-    </row>
-    <row r="34" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="56"/>
-      <c r="B34" s="107"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="74"/>
-      <c r="G34" s="86"/>
-      <c r="H34" s="83">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I34" s="123"/>
-      <c r="J34" s="83"/>
-      <c r="K34" s="130"/>
-      <c r="L34" s="131"/>
-    </row>
-    <row r="35" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="56"/>
-      <c r="B35" s="110"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="74"/>
-      <c r="G35" s="86"/>
-      <c r="H35" s="83">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="123"/>
-      <c r="J35" s="83"/>
-      <c r="K35" s="150"/>
-      <c r="L35" s="151"/>
-    </row>
-    <row r="36" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="56"/>
-      <c r="B36" s="110"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="74"/>
-      <c r="G36" s="86"/>
-      <c r="H36" s="83">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I36" s="123"/>
-      <c r="J36" s="83"/>
-      <c r="K36" s="150"/>
-      <c r="L36" s="151"/>
-    </row>
-    <row r="37" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="56"/>
-      <c r="B37" s="110"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="74"/>
-      <c r="G37" s="86"/>
-      <c r="H37" s="83">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I37" s="123"/>
-      <c r="J37" s="83"/>
-      <c r="K37" s="150"/>
-      <c r="L37" s="151"/>
-    </row>
-    <row r="38" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="56"/>
-      <c r="B38" s="111"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="58"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="74"/>
-      <c r="G38" s="86"/>
-      <c r="H38" s="83">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I38" s="123"/>
-      <c r="J38" s="83"/>
-      <c r="K38" s="150"/>
-      <c r="L38" s="151"/>
-    </row>
-    <row r="39" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="56"/>
-      <c r="B39" s="107"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="74"/>
-      <c r="G39" s="86"/>
-      <c r="H39" s="83">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I39" s="123"/>
-      <c r="J39" s="83"/>
-      <c r="K39" s="178"/>
-      <c r="L39" s="179"/>
-    </row>
-    <row r="40" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="56"/>
-      <c r="B40" s="107"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="58"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="74"/>
-      <c r="G40" s="86"/>
-      <c r="H40" s="83">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I40" s="123"/>
-      <c r="J40" s="83"/>
-      <c r="K40" s="174"/>
-      <c r="L40" s="175"/>
-    </row>
-    <row r="41" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="56"/>
-      <c r="B41" s="107"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="58"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="74"/>
-      <c r="G41" s="86"/>
-      <c r="H41" s="83">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I41" s="123"/>
-      <c r="J41" s="83"/>
-      <c r="K41" s="174"/>
-      <c r="L41" s="175"/>
-    </row>
-    <row r="42" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="56"/>
-      <c r="B42" s="107"/>
-      <c r="C42" s="57"/>
-      <c r="D42" s="58"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="74"/>
-      <c r="G42" s="86"/>
-      <c r="H42" s="83">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I42" s="123"/>
-      <c r="J42" s="83"/>
-      <c r="K42" s="174"/>
-      <c r="L42" s="175"/>
-    </row>
-    <row r="43" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="56"/>
-      <c r="B43" s="107"/>
-      <c r="C43" s="57"/>
-      <c r="D43" s="58"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="74"/>
-      <c r="G43" s="86"/>
-      <c r="H43" s="83">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I43" s="123"/>
-      <c r="J43" s="83"/>
-      <c r="K43" s="174"/>
-      <c r="L43" s="175"/>
-    </row>
-    <row r="44" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="56"/>
-      <c r="B44" s="107"/>
-      <c r="C44" s="57"/>
-      <c r="D44" s="58"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="74"/>
-      <c r="G44" s="86"/>
-      <c r="H44" s="83">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I44" s="123"/>
-      <c r="J44" s="83"/>
-      <c r="K44" s="176"/>
-      <c r="L44" s="177"/>
-    </row>
-    <row r="45" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="56"/>
-      <c r="B45" s="107"/>
-      <c r="C45" s="57"/>
-      <c r="D45" s="58"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="74"/>
-      <c r="G45" s="86"/>
-      <c r="H45" s="83">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I45" s="123"/>
-      <c r="J45" s="83"/>
-      <c r="K45" s="176"/>
-      <c r="L45" s="177"/>
-    </row>
-    <row r="46" spans="1:12" ht="21.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A46" s="61"/>
-      <c r="B46" s="67"/>
-      <c r="C46" s="62"/>
-      <c r="D46" s="63"/>
-      <c r="E46" s="45"/>
-      <c r="F46" s="77"/>
-      <c r="G46" s="90"/>
-      <c r="H46" s="83">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I46" s="124"/>
-      <c r="J46" s="116"/>
-      <c r="K46" s="180"/>
-      <c r="L46" s="181"/>
-    </row>
-    <row r="47" spans="1:12" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="64"/>
-      <c r="B47" s="65"/>
-      <c r="C47" s="199" t="s">
-        <v>5</v>
-      </c>
-      <c r="D47" s="199"/>
-      <c r="E47" s="101"/>
-      <c r="F47" s="186">
-        <f>SUM(H8:H46)</f>
-        <v>0</v>
-      </c>
-      <c r="G47" s="187"/>
-      <c r="H47" s="187"/>
-      <c r="I47" s="188"/>
-      <c r="J47" s="189"/>
-      <c r="K47" s="91"/>
-      <c r="L47" s="15"/>
-    </row>
-    <row r="48" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="117"/>
-      <c r="B48" s="118"/>
-      <c r="C48" s="184" t="s">
-        <v>26</v>
-      </c>
-      <c r="D48" s="185"/>
-      <c r="E48" s="121"/>
-      <c r="F48" s="190"/>
-      <c r="G48" s="191"/>
-      <c r="H48" s="191"/>
-      <c r="I48" s="191"/>
-      <c r="J48" s="192"/>
-      <c r="K48" s="119"/>
-      <c r="L48" s="120"/>
-    </row>
-    <row r="49" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A49" s="66"/>
-      <c r="B49" s="67"/>
-      <c r="C49" s="200"/>
-      <c r="D49" s="200"/>
-      <c r="E49" s="68"/>
-      <c r="F49" s="193"/>
-      <c r="G49" s="194"/>
-      <c r="H49" s="194"/>
-      <c r="I49" s="195"/>
-      <c r="J49" s="196"/>
-      <c r="K49" s="92"/>
-      <c r="L49" s="16"/>
-    </row>
-    <row r="50" spans="1:12" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A50" s="69"/>
-      <c r="B50" s="70"/>
-      <c r="C50" s="134" t="s">
-        <v>6</v>
-      </c>
-      <c r="D50" s="134"/>
-      <c r="E50" s="102"/>
-      <c r="F50" s="197">
-        <f>F47+F49</f>
-        <v>0</v>
-      </c>
-      <c r="G50" s="198"/>
-      <c r="H50" s="198"/>
-      <c r="I50" s="172"/>
-      <c r="J50" s="173"/>
-      <c r="K50" s="93"/>
-      <c r="L50" s="18"/>
-    </row>
-    <row r="51" spans="1:12" s="21" customFormat="1" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A51" s="182" t="s">
-        <v>16</v>
-      </c>
-      <c r="B51" s="182"/>
-      <c r="C51" s="182"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="20"/>
-      <c r="K51" s="183"/>
-      <c r="L51" s="183"/>
-    </row>
-    <row r="52" spans="1:12" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A52" s="159" t="s">
-        <v>1</v>
-      </c>
-      <c r="B52" s="160"/>
-      <c r="C52" s="161" t="s">
-        <v>13</v>
-      </c>
-      <c r="D52" s="162"/>
-      <c r="E52" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="F52" s="78" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="H52" s="78" t="s">
-        <v>19</v>
-      </c>
-      <c r="I52" s="115" t="s">
-        <v>24</v>
-      </c>
-      <c r="J52" s="115" t="s">
-        <v>25</v>
-      </c>
-      <c r="K52" s="161" t="s">
-        <v>4</v>
-      </c>
-      <c r="L52" s="163"/>
-    </row>
-    <row r="53" spans="1:12" ht="21.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="112"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="23"/>
+    </row>
+    <row r="53" spans="1:11" ht="21.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="103"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="20"/>
       <c r="D53" s="9"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="79"/>
-      <c r="G53" s="97"/>
-      <c r="H53" s="94">
+      <c r="E53" s="21"/>
+      <c r="F53" s="74"/>
+      <c r="G53" s="89"/>
+      <c r="H53" s="86">
         <f>F53+G53</f>
         <v>0</v>
       </c>
-      <c r="I53" s="125"/>
-      <c r="J53" s="94"/>
-      <c r="K53" s="168"/>
-      <c r="L53" s="169"/>
-    </row>
-    <row r="54" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="113"/>
+      <c r="I53" s="114"/>
+      <c r="J53" s="86"/>
+      <c r="K53" s="137"/>
+    </row>
+    <row r="54" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="104"/>
       <c r="B54" s="11"/>
-      <c r="C54" s="25"/>
+      <c r="C54" s="22"/>
       <c r="D54" s="10"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="80"/>
-      <c r="G54" s="98"/>
-      <c r="H54" s="95">
+      <c r="E54" s="23"/>
+      <c r="F54" s="75"/>
+      <c r="G54" s="90"/>
+      <c r="H54" s="87">
         <f>F54+G54</f>
         <v>0</v>
       </c>
-      <c r="I54" s="126"/>
-      <c r="J54" s="95"/>
-      <c r="K54" s="166"/>
-      <c r="L54" s="167"/>
-    </row>
-    <row r="55" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="113"/>
+      <c r="I54" s="115"/>
+      <c r="J54" s="87"/>
+      <c r="K54" s="138"/>
+    </row>
+    <row r="55" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="104"/>
       <c r="B55" s="11"/>
-      <c r="C55" s="25"/>
+      <c r="C55" s="22"/>
       <c r="D55" s="10"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="80"/>
-      <c r="G55" s="98"/>
-      <c r="H55" s="95">
+      <c r="E55" s="23"/>
+      <c r="F55" s="75"/>
+      <c r="G55" s="90"/>
+      <c r="H55" s="87">
         <f>F55+G55</f>
         <v>0</v>
       </c>
-      <c r="I55" s="126"/>
-      <c r="J55" s="95"/>
-      <c r="K55" s="166"/>
-      <c r="L55" s="167"/>
-    </row>
-    <row r="56" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="113"/>
-      <c r="B56" s="28"/>
-      <c r="C56" s="46"/>
+      <c r="I55" s="115"/>
+      <c r="J55" s="87"/>
+      <c r="K55" s="138"/>
+    </row>
+    <row r="56" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A56" s="104"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="42"/>
       <c r="D56" s="10"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="80"/>
-      <c r="G56" s="98"/>
-      <c r="H56" s="95">
+      <c r="E56" s="23"/>
+      <c r="F56" s="75"/>
+      <c r="G56" s="90"/>
+      <c r="H56" s="87">
         <f t="shared" ref="H56:H57" si="2">F56+G56</f>
         <v>0</v>
       </c>
-      <c r="I56" s="126"/>
-      <c r="J56" s="95"/>
-      <c r="K56" s="135"/>
-      <c r="L56" s="136"/>
-    </row>
-    <row r="57" spans="1:12" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A57" s="114"/>
-      <c r="B57" s="35"/>
-      <c r="C57" s="36"/>
-      <c r="D57" s="37"/>
-      <c r="E57" s="38"/>
-      <c r="F57" s="81"/>
-      <c r="G57" s="99"/>
-      <c r="H57" s="96">
+      <c r="I56" s="115"/>
+      <c r="J56" s="87"/>
+      <c r="K56" s="139"/>
+    </row>
+    <row r="57" spans="1:11" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A57" s="105"/>
+      <c r="B57" s="31"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="76"/>
+      <c r="G57" s="91"/>
+      <c r="H57" s="88">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I57" s="127"/>
-      <c r="J57" s="96"/>
-      <c r="K57" s="137"/>
-      <c r="L57" s="138"/>
-    </row>
-    <row r="58" spans="1:12" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A58" s="69"/>
-      <c r="B58" s="70"/>
-      <c r="C58" s="134" t="s">
+      <c r="I57" s="116"/>
+      <c r="J57" s="88"/>
+      <c r="K57" s="140"/>
+    </row>
+    <row r="58" spans="1:11" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A58" s="64"/>
+      <c r="B58" s="65"/>
+      <c r="C58" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="D58" s="134"/>
-      <c r="E58" s="71" t="s">
+      <c r="D58" s="145"/>
+      <c r="E58" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="170">
+      <c r="F58" s="155">
         <f>SUM(H53:H57)</f>
         <v>0</v>
       </c>
-      <c r="G58" s="171"/>
-      <c r="H58" s="171"/>
-      <c r="I58" s="172"/>
-      <c r="J58" s="173"/>
-      <c r="K58" s="100"/>
-      <c r="L58" s="27"/>
-    </row>
-    <row r="59" spans="1:12" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A59" s="29"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="30"/>
-      <c r="G59" s="30"/>
-      <c r="H59" s="30"/>
-      <c r="I59" s="30"/>
-      <c r="J59" s="30"/>
-      <c r="K59" s="30"/>
-      <c r="L59" s="17"/>
-    </row>
-    <row r="60" spans="1:12" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A60" s="31"/>
-      <c r="B60" s="72" t="s">
+      <c r="G58" s="156"/>
+      <c r="H58" s="156"/>
+      <c r="I58" s="157"/>
+      <c r="J58" s="158"/>
+      <c r="K58" s="141"/>
+    </row>
+    <row r="59" spans="1:11" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A59" s="25"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="26"/>
+      <c r="I59" s="26"/>
+      <c r="J59" s="26"/>
+      <c r="K59" s="120"/>
+    </row>
+    <row r="60" spans="1:11" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A60" s="27"/>
+      <c r="B60" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="C60" s="143" t="s">
+      <c r="C60" s="148" t="s">
         <v>20</v>
       </c>
-      <c r="D60" s="143"/>
-      <c r="E60" s="103"/>
-      <c r="F60" s="148">
+      <c r="D60" s="148"/>
+      <c r="E60" s="94"/>
+      <c r="F60" s="153">
         <f>F50+F58</f>
         <v>0</v>
       </c>
-      <c r="G60" s="148"/>
-      <c r="H60" s="148"/>
-      <c r="I60" s="149"/>
-      <c r="J60" s="149"/>
-      <c r="K60" s="139" t="s">
+      <c r="G60" s="153"/>
+      <c r="H60" s="153"/>
+      <c r="I60" s="154"/>
+      <c r="J60" s="154"/>
+      <c r="K60" s="142" t="s">
         <v>9</v>
       </c>
-      <c r="L60" s="140"/>
-    </row>
-    <row r="61" spans="1:12" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="141"/>
-      <c r="B61" s="141"/>
-      <c r="C61" s="141"/>
-      <c r="D61" s="141"/>
-      <c r="E61" s="142"/>
-      <c r="F61" s="104" t="s">
+    </row>
+    <row r="61" spans="1:11" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A61" s="146"/>
+      <c r="B61" s="146"/>
+      <c r="C61" s="146"/>
+      <c r="D61" s="146"/>
+      <c r="E61" s="147"/>
+      <c r="F61" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="G61" s="144">
+      <c r="G61" s="149">
         <f>B3</f>
         <v>0</v>
       </c>
-      <c r="H61" s="144"/>
-      <c r="I61" s="144"/>
-      <c r="J61" s="144"/>
-      <c r="K61" s="144"/>
-      <c r="L61" s="145"/>
-    </row>
-    <row r="62" spans="1:12" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A62" s="132"/>
-      <c r="B62" s="132"/>
-      <c r="C62" s="132"/>
-      <c r="D62" s="132"/>
-      <c r="E62" s="133"/>
-      <c r="F62" s="105" t="s">
+      <c r="H61" s="149"/>
+      <c r="I61" s="149"/>
+      <c r="J61" s="149"/>
+      <c r="K61" s="150"/>
+    </row>
+    <row r="62" spans="1:11" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A62" s="143"/>
+      <c r="B62" s="143"/>
+      <c r="C62" s="143"/>
+      <c r="D62" s="143"/>
+      <c r="E62" s="144"/>
+      <c r="F62" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="G62" s="146"/>
-      <c r="H62" s="146"/>
-      <c r="I62" s="146"/>
-      <c r="J62" s="146"/>
-      <c r="K62" s="146"/>
-      <c r="L62" s="147"/>
-    </row>
-    <row r="63" spans="1:12" ht="20.25" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A63" s="32"/>
-      <c r="B63" s="33"/>
-      <c r="C63" s="33"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="33"/>
-      <c r="F63" s="33"/>
-      <c r="G63" s="33"/>
-      <c r="H63" s="33"/>
-      <c r="I63" s="33"/>
-      <c r="J63" s="33"/>
-      <c r="K63" s="33"/>
-      <c r="L63" s="33"/>
+      <c r="G62" s="151"/>
+      <c r="H62" s="151"/>
+      <c r="I62" s="151"/>
+      <c r="J62" s="151"/>
+      <c r="K62" s="152"/>
+    </row>
+    <row r="63" spans="1:11" ht="20.25" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A63" s="28"/>
+      <c r="B63" s="29"/>
+      <c r="C63" s="29"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="29"/>
+      <c r="G63" s="29"/>
+      <c r="H63" s="29"/>
+      <c r="I63" s="29"/>
+      <c r="J63" s="29"/>
+      <c r="K63" s="121"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="K64" s="118"/>
+    </row>
+    <row r="65" spans="11:11" x14ac:dyDescent="0.45">
+      <c r="K65" s="118"/>
     </row>
   </sheetData>
-  <mergeCells count="74">
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="K51:L51"/>
+  <mergeCells count="25">
     <mergeCell ref="A52:B52"/>
     <mergeCell ref="C52:D52"/>
-    <mergeCell ref="K52:L52"/>
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="F47:J47"/>
     <mergeCell ref="F48:J48"/>
@@ -4157,57 +3983,26 @@
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="C49:D49"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A2:K2"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="K7:L7"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
     <mergeCell ref="A62:E62"/>
     <mergeCell ref="C58:D58"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K60:L60"/>
     <mergeCell ref="A61:E61"/>
     <mergeCell ref="C60:D60"/>
-    <mergeCell ref="G61:L61"/>
-    <mergeCell ref="G62:L62"/>
+    <mergeCell ref="G61:K61"/>
+    <mergeCell ref="G62:K62"/>
     <mergeCell ref="F60:J60"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K54:L54"/>
     <mergeCell ref="F58:J58"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="62" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="63" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>